--- a/RNN系列實作/多模型_客戶訂單需求預測/data/客戶下單量與庫存量統計表-益張.xlsx
+++ b/RNN系列實作/多模型_客戶訂單需求預測/data/客戶下單量與庫存量統計表-益張.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKU\Coding\Cc\Self_Learn\RNN系列實作\多模型_客戶訂單需求預測\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89664B3D-808E-4825-A6E5-0A999DF233AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客戶下單數量明細" sheetId="1" r:id="rId1"/>
@@ -84,11 +90,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="183" formatCode="m/d;@"/>
-    <numFmt numFmtId="184" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -445,7 +451,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,23 +461,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +528,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,31 +545,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,59 +569,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -596,13 +599,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -651,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,9 +690,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,6 +742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,10 +934,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -906,455 +946,454 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="16" customWidth="1"/>
-    <col min="3" max="107" width="5" style="16" customWidth="1"/>
-    <col min="108" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="107" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="12" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="14"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="30"/>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="27"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>9</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>11</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>12</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>13</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>14</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>15</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>16</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>17</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>18</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>19</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>20</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>21</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>22</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>23</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>24</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>25</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>26</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <v>27</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <v>28</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="4">
         <v>29</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="4">
         <v>30</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="4">
         <v>31</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <v>32</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="4">
         <v>33</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="4">
         <v>34</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="4">
         <v>35</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="4">
         <v>36</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="4">
         <v>37</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="4">
         <v>38</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" s="4">
         <v>39</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="4">
         <v>40</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2" s="4">
         <v>41</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="4">
         <v>42</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="4">
         <v>43</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="4">
         <v>44</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" s="4">
         <v>45</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="4">
         <v>46</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="4">
         <v>47</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="AX2" s="4">
         <v>48</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="AY2" s="4">
         <v>49</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="AZ2" s="4">
         <v>50</v>
       </c>
-      <c r="BA2" s="5">
+      <c r="BA2" s="4">
         <v>51</v>
       </c>
-      <c r="BB2" s="5">
+      <c r="BB2" s="4">
         <v>52</v>
       </c>
-      <c r="BC2" s="5">
+      <c r="BC2" s="4">
         <v>53</v>
       </c>
-      <c r="BD2" s="15">
+      <c r="BD2" s="5">
         <v>1</v>
       </c>
-      <c r="BE2" s="15">
+      <c r="BE2" s="5">
         <v>2</v>
       </c>
-      <c r="BF2" s="15">
+      <c r="BF2" s="5">
         <v>3</v>
       </c>
-      <c r="BG2" s="15">
+      <c r="BG2" s="5">
         <v>4</v>
       </c>
-      <c r="BH2" s="15">
+      <c r="BH2" s="5">
         <v>5</v>
       </c>
-      <c r="BI2" s="15">
+      <c r="BI2" s="5">
         <v>6</v>
       </c>
-      <c r="BJ2" s="15">
+      <c r="BJ2" s="5">
         <v>7</v>
       </c>
-      <c r="BK2" s="15">
+      <c r="BK2" s="5">
         <v>8</v>
       </c>
-      <c r="BL2" s="15">
+      <c r="BL2" s="5">
         <v>9</v>
       </c>
-      <c r="BM2" s="15">
+      <c r="BM2" s="5">
         <v>10</v>
       </c>
-      <c r="BN2" s="15">
+      <c r="BN2" s="5">
         <v>11</v>
       </c>
-      <c r="BO2" s="15">
+      <c r="BO2" s="5">
         <v>12</v>
       </c>
-      <c r="BP2" s="15">
+      <c r="BP2" s="5">
         <v>13</v>
       </c>
-      <c r="BQ2" s="15">
+      <c r="BQ2" s="5">
         <v>14</v>
       </c>
-      <c r="BR2" s="15">
+      <c r="BR2" s="5">
         <v>15</v>
       </c>
-      <c r="BS2" s="15">
+      <c r="BS2" s="5">
         <v>16</v>
       </c>
-      <c r="BT2" s="15">
+      <c r="BT2" s="5">
         <v>17</v>
       </c>
-      <c r="BU2" s="15">
+      <c r="BU2" s="5">
         <v>18</v>
       </c>
-      <c r="BV2" s="15">
+      <c r="BV2" s="5">
         <v>19</v>
       </c>
-      <c r="BW2" s="15">
+      <c r="BW2" s="5">
         <v>20</v>
       </c>
-      <c r="BX2" s="15">
+      <c r="BX2" s="5">
         <v>21</v>
       </c>
-      <c r="BY2" s="15">
+      <c r="BY2" s="5">
         <v>22</v>
       </c>
-      <c r="BZ2" s="15">
+      <c r="BZ2" s="5">
         <v>23</v>
       </c>
-      <c r="CA2" s="15">
+      <c r="CA2" s="5">
         <v>24</v>
       </c>
-      <c r="CB2" s="15">
+      <c r="CB2" s="5">
         <v>25</v>
       </c>
-      <c r="CC2" s="15">
+      <c r="CC2" s="5">
         <v>26</v>
       </c>
-      <c r="CD2" s="15">
+      <c r="CD2" s="5">
         <v>27</v>
       </c>
-      <c r="CE2" s="15">
+      <c r="CE2" s="5">
         <v>28</v>
       </c>
-      <c r="CF2" s="15">
+      <c r="CF2" s="5">
         <v>29</v>
       </c>
-      <c r="CG2" s="15">
+      <c r="CG2" s="5">
         <v>30</v>
       </c>
-      <c r="CH2" s="15">
+      <c r="CH2" s="5">
         <v>31</v>
       </c>
-      <c r="CI2" s="15">
+      <c r="CI2" s="5">
         <v>32</v>
       </c>
-      <c r="CJ2" s="15">
+      <c r="CJ2" s="5">
         <v>33</v>
       </c>
-      <c r="CK2" s="15">
+      <c r="CK2" s="5">
         <v>34</v>
       </c>
-      <c r="CL2" s="15">
+      <c r="CL2" s="5">
         <v>35</v>
       </c>
-      <c r="CM2" s="15">
+      <c r="CM2" s="5">
         <v>36</v>
       </c>
-      <c r="CN2" s="15">
+      <c r="CN2" s="5">
         <v>37</v>
       </c>
-      <c r="CO2" s="15">
+      <c r="CO2" s="5">
         <v>38</v>
       </c>
-      <c r="CP2" s="15">
+      <c r="CP2" s="5">
         <v>39</v>
       </c>
-      <c r="CQ2" s="15">
+      <c r="CQ2" s="5">
         <v>40</v>
       </c>
-      <c r="CR2" s="15">
+      <c r="CR2" s="5">
         <v>41</v>
       </c>
-      <c r="CS2" s="15">
+      <c r="CS2" s="5">
         <v>42</v>
       </c>
-      <c r="CT2" s="15">
+      <c r="CT2" s="5">
         <v>43</v>
       </c>
-      <c r="CU2" s="15">
+      <c r="CU2" s="5">
         <v>44</v>
       </c>
-      <c r="CV2" s="15">
+      <c r="CV2" s="5">
         <v>45</v>
       </c>
-      <c r="CW2" s="15">
+      <c r="CW2" s="5">
         <v>46</v>
       </c>
-      <c r="CX2" s="15">
+      <c r="CX2" s="5">
         <v>47</v>
       </c>
-      <c r="CY2" s="15">
+      <c r="CY2" s="5">
         <v>48</v>
       </c>
-      <c r="CZ2" s="15">
+      <c r="CZ2" s="5">
         <v>49</v>
       </c>
-      <c r="DA2" s="15">
+      <c r="DA2" s="5">
         <v>50</v>
       </c>
-      <c r="DB2" s="15">
+      <c r="DB2" s="5">
         <v>51</v>
       </c>
-      <c r="DC2" s="15">
+      <c r="DC2" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1601,11 +1640,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1832,11 +1871,11 @@
       </c>
       <c r="DC4" s="3"/>
     </row>
-    <row r="5" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2109,11 +2148,11 @@
       </c>
       <c r="DC5" s="3"/>
     </row>
-    <row r="6" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2392,13 +2431,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="BD1:DC1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C1:BC1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BD1:DC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,1006 +2446,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FB15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="22" customWidth="1"/>
-    <col min="4" max="158" width="5.5" style="20" customWidth="1"/>
-    <col min="159" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="9" customWidth="1"/>
+    <col min="4" max="158" width="5.5" style="7" customWidth="1"/>
+    <col min="159" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:158" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="25" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="14"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="29"/>
+      <c r="DD1" s="29"/>
+      <c r="DE1" s="29"/>
+      <c r="DF1" s="29"/>
+      <c r="DG1" s="29"/>
+      <c r="DH1" s="29"/>
+      <c r="DI1" s="29"/>
+      <c r="DJ1" s="29"/>
+      <c r="DK1" s="29"/>
+      <c r="DL1" s="29"/>
+      <c r="DM1" s="29"/>
+      <c r="DN1" s="29"/>
+      <c r="DO1" s="29"/>
+      <c r="DP1" s="29"/>
+      <c r="DQ1" s="29"/>
+      <c r="DR1" s="29"/>
+      <c r="DS1" s="29"/>
+      <c r="DT1" s="29"/>
+      <c r="DU1" s="29"/>
+      <c r="DV1" s="29"/>
+      <c r="DW1" s="29"/>
+      <c r="DX1" s="29"/>
+      <c r="DY1" s="29"/>
+      <c r="DZ1" s="29"/>
+      <c r="EA1" s="29"/>
+      <c r="EB1" s="29"/>
+      <c r="EC1" s="29"/>
+      <c r="ED1" s="29"/>
+      <c r="EE1" s="29"/>
+      <c r="EF1" s="29"/>
+      <c r="EG1" s="29"/>
+      <c r="EH1" s="29"/>
+      <c r="EI1" s="29"/>
+      <c r="EJ1" s="29"/>
+      <c r="EK1" s="29"/>
+      <c r="EL1" s="29"/>
+      <c r="EM1" s="29"/>
+      <c r="EN1" s="29"/>
+      <c r="EO1" s="29"/>
+      <c r="EP1" s="29"/>
+      <c r="EQ1" s="29"/>
+      <c r="ER1" s="29"/>
+      <c r="ES1" s="29"/>
+      <c r="ET1" s="29"/>
+      <c r="EU1" s="29"/>
+      <c r="EV1" s="29"/>
+      <c r="EW1" s="29"/>
+      <c r="EX1" s="29"/>
+      <c r="EY1" s="29"/>
+      <c r="EZ1" s="29"/>
+      <c r="FA1" s="29"/>
+      <c r="FB1" s="30"/>
     </row>
     <row r="2" spans="1:158" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28">
-        <v>44563</v>
-      </c>
-      <c r="E2" s="28">
-        <v>43474</v>
-      </c>
-      <c r="F2" s="28">
-        <v>43481</v>
-      </c>
-      <c r="G2" s="28">
-        <v>43488</v>
-      </c>
-      <c r="H2" s="28">
-        <v>43495</v>
-      </c>
-      <c r="I2" s="28">
-        <v>43502</v>
-      </c>
-      <c r="J2" s="28">
-        <v>43509</v>
-      </c>
-      <c r="K2" s="28">
-        <v>43516</v>
-      </c>
-      <c r="L2" s="28">
-        <v>43523</v>
-      </c>
-      <c r="M2" s="28">
-        <v>43529</v>
-      </c>
-      <c r="N2" s="28">
-        <v>43536</v>
-      </c>
-      <c r="O2" s="28">
-        <v>43543</v>
-      </c>
-      <c r="P2" s="28">
+      <c r="D2" s="11">
+        <v>43832</v>
+      </c>
+      <c r="E2" s="11">
+        <v>43839</v>
+      </c>
+      <c r="F2" s="11">
+        <v>43846</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43853</v>
+      </c>
+      <c r="H2" s="11">
+        <v>43860</v>
+      </c>
+      <c r="I2" s="11">
+        <v>43867</v>
+      </c>
+      <c r="J2" s="11">
+        <v>43874</v>
+      </c>
+      <c r="K2" s="11">
+        <v>43881</v>
+      </c>
+      <c r="L2" s="11">
+        <v>43888</v>
+      </c>
+      <c r="M2" s="11">
+        <v>43895</v>
+      </c>
+      <c r="N2" s="11">
+        <v>43902</v>
+      </c>
+      <c r="O2" s="11">
+        <v>43909</v>
+      </c>
+      <c r="P2" s="11">
         <v>43916</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="11">
         <v>43923</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="11">
         <v>43930</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="11">
         <v>43937</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="11">
         <v>43944</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="11">
         <v>43951</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="11">
         <v>43958</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="11">
         <v>43965</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="11">
         <v>43972</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="11">
         <v>43979</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="11">
         <v>43986</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="11">
         <v>43993</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="11">
         <v>44000</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="11">
         <v>44007</v>
       </c>
-      <c r="AD2" s="28">
+      <c r="AD2" s="11">
         <v>44012</v>
       </c>
-      <c r="AE2" s="28">
+      <c r="AE2" s="11">
         <v>44019</v>
       </c>
-      <c r="AF2" s="28">
+      <c r="AF2" s="11">
         <v>44026</v>
       </c>
-      <c r="AG2" s="28">
+      <c r="AG2" s="11">
         <v>44033</v>
       </c>
-      <c r="AH2" s="28">
+      <c r="AH2" s="11">
         <v>44040</v>
       </c>
-      <c r="AI2" s="28">
+      <c r="AI2" s="11">
         <v>44047</v>
       </c>
-      <c r="AJ2" s="28">
+      <c r="AJ2" s="11">
         <v>44054</v>
       </c>
-      <c r="AK2" s="28">
+      <c r="AK2" s="11">
         <v>44061</v>
       </c>
-      <c r="AL2" s="28">
+      <c r="AL2" s="11">
         <v>44068</v>
       </c>
-      <c r="AM2" s="28">
+      <c r="AM2" s="11">
         <v>44075</v>
       </c>
-      <c r="AN2" s="28">
+      <c r="AN2" s="11">
         <v>44082</v>
       </c>
-      <c r="AO2" s="28">
+      <c r="AO2" s="11">
         <v>44089</v>
       </c>
-      <c r="AP2" s="28">
+      <c r="AP2" s="11">
         <v>44096</v>
       </c>
-      <c r="AQ2" s="28">
+      <c r="AQ2" s="11">
         <v>44103</v>
       </c>
-      <c r="AR2" s="28">
+      <c r="AR2" s="11">
         <v>44110</v>
       </c>
-      <c r="AS2" s="28">
+      <c r="AS2" s="11">
         <v>44117</v>
       </c>
-      <c r="AT2" s="28">
+      <c r="AT2" s="11">
         <v>44124</v>
       </c>
-      <c r="AU2" s="28">
+      <c r="AU2" s="11">
         <v>44131</v>
       </c>
-      <c r="AV2" s="28">
+      <c r="AV2" s="11">
         <v>44138</v>
       </c>
-      <c r="AW2" s="28">
+      <c r="AW2" s="11">
         <v>44145</v>
       </c>
-      <c r="AX2" s="28">
+      <c r="AX2" s="11">
         <v>44152</v>
       </c>
-      <c r="AY2" s="28">
+      <c r="AY2" s="11">
         <v>44159</v>
       </c>
-      <c r="AZ2" s="28">
+      <c r="AZ2" s="11">
         <v>44166</v>
       </c>
-      <c r="BA2" s="28">
+      <c r="BA2" s="11">
         <v>44173</v>
       </c>
-      <c r="BB2" s="28">
+      <c r="BB2" s="11">
         <v>44180</v>
       </c>
-      <c r="BC2" s="28">
+      <c r="BC2" s="11">
         <v>44187</v>
       </c>
-      <c r="BD2" s="28">
+      <c r="BD2" s="11">
         <v>44194</v>
       </c>
-      <c r="BE2" s="29">
-        <v>43835</v>
-      </c>
-      <c r="BF2" s="29">
-        <v>43837</v>
-      </c>
-      <c r="BG2" s="29">
-        <v>43842</v>
-      </c>
-      <c r="BH2" s="29">
-        <v>43844</v>
-      </c>
-      <c r="BI2" s="29">
-        <v>43849</v>
-      </c>
-      <c r="BJ2" s="29">
-        <v>43851</v>
-      </c>
-      <c r="BK2" s="29">
-        <v>43856</v>
-      </c>
-      <c r="BL2" s="29">
-        <v>43858</v>
-      </c>
-      <c r="BM2" s="29">
-        <v>43863</v>
-      </c>
-      <c r="BN2" s="29">
-        <v>43865</v>
-      </c>
-      <c r="BO2" s="29">
-        <v>43870</v>
-      </c>
-      <c r="BP2" s="29">
+      <c r="BE2" s="12">
+        <v>44201</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>44203</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>44208</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>44210</v>
+      </c>
+      <c r="BI2" s="12">
+        <v>44215</v>
+      </c>
+      <c r="BJ2" s="12">
+        <v>44217</v>
+      </c>
+      <c r="BK2" s="12">
+        <v>44222</v>
+      </c>
+      <c r="BL2" s="12">
+        <v>44224</v>
+      </c>
+      <c r="BM2" s="12">
+        <v>44229</v>
+      </c>
+      <c r="BN2" s="12">
+        <v>44231</v>
+      </c>
+      <c r="BO2" s="12">
+        <v>44236</v>
+      </c>
+      <c r="BP2" s="12">
         <v>44245</v>
       </c>
-      <c r="BQ2" s="29">
+      <c r="BQ2" s="12">
         <v>44247</v>
       </c>
-      <c r="BR2" s="29">
-        <v>43884</v>
-      </c>
-      <c r="BS2" s="29">
+      <c r="BR2" s="12">
+        <v>44250</v>
+      </c>
+      <c r="BS2" s="12">
         <v>44252</v>
       </c>
-      <c r="BT2" s="29">
-        <v>43892</v>
-      </c>
-      <c r="BU2" s="29">
+      <c r="BT2" s="12">
+        <v>44257</v>
+      </c>
+      <c r="BU2" s="12">
         <v>44259</v>
       </c>
-      <c r="BV2" s="29">
-        <v>43899</v>
-      </c>
-      <c r="BW2" s="29">
+      <c r="BV2" s="12">
+        <v>44264</v>
+      </c>
+      <c r="BW2" s="12">
         <v>44266</v>
       </c>
-      <c r="BX2" s="29">
-        <v>43906</v>
-      </c>
-      <c r="BY2" s="29">
+      <c r="BX2" s="12">
+        <v>44271</v>
+      </c>
+      <c r="BY2" s="12">
         <v>44273</v>
       </c>
-      <c r="BZ2" s="29">
-        <v>43913</v>
-      </c>
-      <c r="CA2" s="29">
+      <c r="BZ2" s="12">
+        <v>44278</v>
+      </c>
+      <c r="CA2" s="12">
         <v>44280</v>
       </c>
-      <c r="CB2" s="29">
-        <v>43920</v>
-      </c>
-      <c r="CC2" s="29">
+      <c r="CB2" s="12">
+        <v>44285</v>
+      </c>
+      <c r="CC2" s="12">
         <v>44287</v>
       </c>
-      <c r="CD2" s="29">
+      <c r="CD2" s="12">
         <v>44292</v>
       </c>
-      <c r="CE2" s="29">
+      <c r="CE2" s="12">
         <v>44294</v>
       </c>
-      <c r="CF2" s="29">
+      <c r="CF2" s="12">
         <v>44299</v>
       </c>
-      <c r="CG2" s="29">
+      <c r="CG2" s="12">
         <v>44301</v>
       </c>
-      <c r="CH2" s="29">
+      <c r="CH2" s="12">
         <v>44308</v>
       </c>
-      <c r="CI2" s="29">
+      <c r="CI2" s="12">
         <v>44313</v>
       </c>
-      <c r="CJ2" s="29">
+      <c r="CJ2" s="12">
         <v>44315</v>
       </c>
-      <c r="CK2" s="29">
+      <c r="CK2" s="12">
         <v>44320</v>
       </c>
-      <c r="CL2" s="29">
+      <c r="CL2" s="12">
         <v>44322</v>
       </c>
-      <c r="CM2" s="29">
+      <c r="CM2" s="12">
         <v>44326</v>
       </c>
-      <c r="CN2" s="29">
+      <c r="CN2" s="12">
         <v>44329</v>
       </c>
-      <c r="CO2" s="29">
+      <c r="CO2" s="12">
         <v>44334</v>
       </c>
-      <c r="CP2" s="29">
+      <c r="CP2" s="12">
         <v>44336</v>
       </c>
-      <c r="CQ2" s="29">
+      <c r="CQ2" s="12">
         <v>44341</v>
       </c>
-      <c r="CR2" s="29">
+      <c r="CR2" s="12">
         <v>44343</v>
       </c>
-      <c r="CS2" s="29">
+      <c r="CS2" s="12">
         <v>44348</v>
       </c>
-      <c r="CT2" s="29">
+      <c r="CT2" s="12">
         <v>44350</v>
       </c>
-      <c r="CU2" s="29">
+      <c r="CU2" s="12">
         <v>44355</v>
       </c>
-      <c r="CV2" s="29">
+      <c r="CV2" s="12">
         <v>44357</v>
       </c>
-      <c r="CW2" s="29">
+      <c r="CW2" s="12">
         <v>44362</v>
       </c>
-      <c r="CX2" s="29">
+      <c r="CX2" s="12">
         <v>44364</v>
       </c>
-      <c r="CY2" s="29">
+      <c r="CY2" s="12">
         <v>44369</v>
       </c>
-      <c r="CZ2" s="29">
+      <c r="CZ2" s="12">
         <v>44371</v>
       </c>
-      <c r="DA2" s="29">
+      <c r="DA2" s="12">
         <v>44376</v>
       </c>
-      <c r="DB2" s="29">
+      <c r="DB2" s="12">
         <v>44378</v>
       </c>
-      <c r="DC2" s="29">
+      <c r="DC2" s="12">
         <v>44383</v>
       </c>
-      <c r="DD2" s="29">
+      <c r="DD2" s="12">
         <v>44385</v>
       </c>
-      <c r="DE2" s="29">
+      <c r="DE2" s="12">
         <v>44390</v>
       </c>
-      <c r="DF2" s="29">
+      <c r="DF2" s="12">
         <v>44392</v>
       </c>
-      <c r="DG2" s="29">
+      <c r="DG2" s="12">
         <v>44397</v>
       </c>
-      <c r="DH2" s="29">
+      <c r="DH2" s="12">
         <v>44399</v>
       </c>
-      <c r="DI2" s="29">
+      <c r="DI2" s="12">
         <v>44404</v>
       </c>
-      <c r="DJ2" s="29">
+      <c r="DJ2" s="12">
         <v>44406</v>
       </c>
-      <c r="DK2" s="29">
+      <c r="DK2" s="12">
         <v>44411</v>
       </c>
-      <c r="DL2" s="29">
+      <c r="DL2" s="12">
         <v>44413</v>
       </c>
-      <c r="DM2" s="29">
+      <c r="DM2" s="12">
         <v>44418</v>
       </c>
-      <c r="DN2" s="29">
+      <c r="DN2" s="12">
         <v>44420</v>
       </c>
-      <c r="DO2" s="29">
+      <c r="DO2" s="12">
         <v>44425</v>
       </c>
-      <c r="DP2" s="29">
+      <c r="DP2" s="12">
         <v>44427</v>
       </c>
-      <c r="DQ2" s="29">
+      <c r="DQ2" s="12">
         <v>44432</v>
       </c>
-      <c r="DR2" s="29">
+      <c r="DR2" s="12">
         <v>44434</v>
       </c>
-      <c r="DS2" s="29">
+      <c r="DS2" s="12">
         <v>44439</v>
       </c>
-      <c r="DT2" s="29">
+      <c r="DT2" s="12">
         <v>44441</v>
       </c>
-      <c r="DU2" s="29">
+      <c r="DU2" s="12">
         <v>44446</v>
       </c>
-      <c r="DV2" s="29">
+      <c r="DV2" s="12">
         <v>44448</v>
       </c>
-      <c r="DW2" s="29">
+      <c r="DW2" s="12">
         <v>44453</v>
       </c>
-      <c r="DX2" s="29">
+      <c r="DX2" s="12">
         <v>44455</v>
       </c>
-      <c r="DY2" s="29">
+      <c r="DY2" s="12">
         <v>44460</v>
       </c>
-      <c r="DZ2" s="29">
+      <c r="DZ2" s="12">
         <v>44462</v>
       </c>
-      <c r="EA2" s="29">
+      <c r="EA2" s="12">
         <v>44467</v>
       </c>
-      <c r="EB2" s="29">
+      <c r="EB2" s="12">
         <v>44469</v>
       </c>
-      <c r="EC2" s="29">
+      <c r="EC2" s="12">
         <v>44474</v>
       </c>
-      <c r="ED2" s="29">
+      <c r="ED2" s="12">
         <v>44476</v>
       </c>
-      <c r="EE2" s="29">
+      <c r="EE2" s="12">
         <v>44481</v>
       </c>
-      <c r="EF2" s="29">
+      <c r="EF2" s="12">
         <v>44483</v>
       </c>
-      <c r="EG2" s="29">
+      <c r="EG2" s="12">
         <v>44488</v>
       </c>
-      <c r="EH2" s="29">
+      <c r="EH2" s="12">
         <v>44490</v>
       </c>
-      <c r="EI2" s="29">
+      <c r="EI2" s="12">
         <v>44495</v>
       </c>
-      <c r="EJ2" s="29">
+      <c r="EJ2" s="12">
         <v>44497</v>
       </c>
-      <c r="EK2" s="29">
+      <c r="EK2" s="12">
         <v>44502</v>
       </c>
-      <c r="EL2" s="29">
+      <c r="EL2" s="12">
         <v>44504</v>
       </c>
-      <c r="EM2" s="29">
+      <c r="EM2" s="12">
         <v>44509</v>
       </c>
-      <c r="EN2" s="29">
+      <c r="EN2" s="12">
         <v>44511</v>
       </c>
-      <c r="EO2" s="29">
+      <c r="EO2" s="12">
         <v>44516</v>
       </c>
-      <c r="EP2" s="29">
+      <c r="EP2" s="12">
         <v>44518</v>
       </c>
-      <c r="EQ2" s="29">
+      <c r="EQ2" s="12">
         <v>44523</v>
       </c>
-      <c r="ER2" s="29">
+      <c r="ER2" s="12">
         <v>44525</v>
       </c>
-      <c r="ES2" s="29">
+      <c r="ES2" s="12">
         <v>44530</v>
       </c>
-      <c r="ET2" s="29">
+      <c r="ET2" s="12">
         <v>44532</v>
       </c>
-      <c r="EU2" s="29">
+      <c r="EU2" s="12">
         <v>44537</v>
       </c>
-      <c r="EV2" s="29">
+      <c r="EV2" s="12">
         <v>44539</v>
       </c>
-      <c r="EW2" s="29">
+      <c r="EW2" s="12">
         <v>44544</v>
       </c>
-      <c r="EX2" s="29">
+      <c r="EX2" s="12">
         <v>44546</v>
       </c>
-      <c r="EY2" s="29">
+      <c r="EY2" s="12">
         <v>44551</v>
       </c>
-      <c r="EZ2" s="29">
+      <c r="EZ2" s="12">
         <v>44553</v>
       </c>
-      <c r="FA2" s="29">
+      <c r="FA2" s="12">
         <v>44558</v>
       </c>
-      <c r="FB2" s="29">
+      <c r="FB2" s="12">
         <v>44560</v>
       </c>
     </row>
     <row r="3" spans="1:158" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32">
+      <c r="C3" s="36"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
         <v>1170</v>
       </c>
-      <c r="Q3" s="32">
-        <v>0</v>
-      </c>
-      <c r="R3" s="32">
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
         <v>1205</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="13">
         <v>1000</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="13">
         <v>1000</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="13">
         <v>1000</v>
       </c>
-      <c r="V3" s="32">
+      <c r="V3" s="13">
         <v>1000</v>
       </c>
-      <c r="W3" s="32">
+      <c r="W3" s="13">
         <v>1000</v>
       </c>
-      <c r="X3" s="32">
+      <c r="X3" s="13">
         <v>1250</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="13">
         <v>1250</v>
       </c>
-      <c r="Z3" s="32">
+      <c r="Z3" s="13">
         <v>750</v>
       </c>
-      <c r="AA3" s="32">
+      <c r="AA3" s="13">
         <v>750</v>
       </c>
-      <c r="AB3" s="32">
+      <c r="AB3" s="13">
         <v>750</v>
       </c>
-      <c r="AC3" s="32">
+      <c r="AC3" s="13">
         <v>750</v>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="13">
         <v>750</v>
       </c>
-      <c r="AE3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="32">
+      <c r="AE3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="13">
         <v>600</v>
       </c>
-      <c r="AN3" s="32">
+      <c r="AN3" s="13">
         <v>600</v>
       </c>
-      <c r="AO3" s="32">
+      <c r="AO3" s="13">
         <v>500</v>
       </c>
-      <c r="AP3" s="32">
+      <c r="AP3" s="13">
         <v>1000</v>
       </c>
-      <c r="AQ3" s="32">
+      <c r="AQ3" s="13">
         <v>500</v>
       </c>
-      <c r="AR3" s="32">
+      <c r="AR3" s="13">
         <v>800</v>
       </c>
-      <c r="AS3" s="32">
+      <c r="AS3" s="13">
         <v>840</v>
       </c>
-      <c r="AT3" s="32">
+      <c r="AT3" s="13">
         <v>700</v>
       </c>
-      <c r="AU3" s="32">
+      <c r="AU3" s="13">
         <v>1000</v>
       </c>
-      <c r="AV3" s="32">
+      <c r="AV3" s="13">
         <v>1000</v>
       </c>
-      <c r="AW3" s="32">
+      <c r="AW3" s="13">
         <v>1000</v>
       </c>
-      <c r="AX3" s="32">
+      <c r="AX3" s="13">
         <v>1500</v>
       </c>
-      <c r="AY3" s="32">
+      <c r="AY3" s="13">
         <v>1500</v>
       </c>
-      <c r="AZ3" s="32">
+      <c r="AZ3" s="13">
         <v>1500</v>
       </c>
-      <c r="BA3" s="32">
+      <c r="BA3" s="13">
         <v>1500</v>
       </c>
-      <c r="BB3" s="32">
+      <c r="BB3" s="13">
         <v>1500</v>
       </c>
-      <c r="BC3" s="32">
+      <c r="BC3" s="13">
         <v>1000</v>
       </c>
-      <c r="BD3" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="32">
+      <c r="BD3" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="13">
         <v>1000</v>
       </c>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32">
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13">
         <v>1000</v>
       </c>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32">
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13">
         <v>500</v>
       </c>
-      <c r="BK3" s="32">
+      <c r="BK3" s="13">
         <v>500</v>
       </c>
-      <c r="BL3" s="32">
+      <c r="BL3" s="13">
         <v>1000</v>
       </c>
-      <c r="BM3" s="32">
+      <c r="BM3" s="13">
         <v>1000</v>
       </c>
-      <c r="BN3" s="32">
+      <c r="BN3" s="13">
         <v>1000</v>
       </c>
-      <c r="BO3" s="32">
+      <c r="BO3" s="13">
         <v>1000</v>
       </c>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32">
+      <c r="BP3" s="13"/>
+      <c r="BQ3" s="13"/>
+      <c r="BR3" s="13">
         <v>1000</v>
       </c>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="32">
+      <c r="BS3" s="13"/>
+      <c r="BT3" s="13">
         <v>700</v>
       </c>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="32">
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13">
         <v>700</v>
       </c>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32">
+      <c r="BW3" s="13"/>
+      <c r="BX3" s="13">
         <v>700</v>
       </c>
-      <c r="BY3" s="32"/>
-      <c r="BZ3" s="32">
+      <c r="BY3" s="13"/>
+      <c r="BZ3" s="13">
         <v>700</v>
       </c>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32">
+      <c r="CA3" s="13"/>
+      <c r="CB3" s="13">
         <v>700</v>
       </c>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="32"/>
-      <c r="CG3" s="32">
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="13"/>
+      <c r="CE3" s="13"/>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="13">
         <v>1000</v>
       </c>
-      <c r="CH3" s="32">
+      <c r="CH3" s="13">
         <v>1500</v>
       </c>
-      <c r="CI3" s="32"/>
-      <c r="CJ3" s="32">
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="13">
         <v>1500</v>
       </c>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="32">
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="13">
         <v>750</v>
       </c>
-      <c r="CM3" s="32"/>
-      <c r="CN3" s="32">
+      <c r="CM3" s="13"/>
+      <c r="CN3" s="13">
         <v>700</v>
       </c>
-      <c r="CO3" s="32"/>
-      <c r="CP3" s="32">
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="13">
         <v>700</v>
       </c>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="32">
+      <c r="CQ3" s="13"/>
+      <c r="CR3" s="13">
         <v>1000</v>
       </c>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="32">
+      <c r="CS3" s="13"/>
+      <c r="CT3" s="13">
         <v>1000</v>
       </c>
-      <c r="CU3" s="32"/>
-      <c r="CV3" s="32">
+      <c r="CU3" s="13"/>
+      <c r="CV3" s="13">
         <v>1000</v>
       </c>
-      <c r="CW3" s="32"/>
-      <c r="CX3" s="32"/>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="32">
+      <c r="CW3" s="13"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="13"/>
+      <c r="CZ3" s="13">
         <v>800</v>
       </c>
-      <c r="DA3" s="32"/>
-      <c r="DB3" s="32">
+      <c r="DA3" s="13"/>
+      <c r="DB3" s="13">
         <v>800</v>
       </c>
-      <c r="DC3" s="32"/>
-      <c r="DD3" s="32">
+      <c r="DC3" s="13"/>
+      <c r="DD3" s="13">
         <v>800</v>
       </c>
-      <c r="DE3" s="32"/>
-      <c r="DF3" s="32">
+      <c r="DE3" s="13"/>
+      <c r="DF3" s="13">
         <v>800</v>
       </c>
-      <c r="DG3" s="32"/>
-      <c r="DH3" s="32">
+      <c r="DG3" s="13"/>
+      <c r="DH3" s="13">
         <v>800</v>
       </c>
-      <c r="DI3" s="32"/>
-      <c r="DJ3" s="32">
+      <c r="DI3" s="13"/>
+      <c r="DJ3" s="13">
         <v>800</v>
       </c>
-      <c r="DK3" s="32"/>
-      <c r="DL3" s="32">
+      <c r="DK3" s="13"/>
+      <c r="DL3" s="13">
         <v>800</v>
       </c>
-      <c r="DM3" s="32"/>
-      <c r="DN3" s="32">
+      <c r="DM3" s="13"/>
+      <c r="DN3" s="13">
         <v>800</v>
       </c>
-      <c r="DO3" s="32"/>
-      <c r="DP3" s="32">
+      <c r="DO3" s="13"/>
+      <c r="DP3" s="13">
         <v>800</v>
       </c>
-      <c r="DQ3" s="32"/>
-      <c r="DR3" s="32">
+      <c r="DQ3" s="13"/>
+      <c r="DR3" s="13">
         <v>800</v>
       </c>
-      <c r="DS3" s="32"/>
-      <c r="DT3" s="32">
+      <c r="DS3" s="13"/>
+      <c r="DT3" s="13">
         <v>1000</v>
       </c>
-      <c r="DU3" s="32"/>
-      <c r="DV3" s="32">
+      <c r="DU3" s="13"/>
+      <c r="DV3" s="13">
         <v>800</v>
       </c>
-      <c r="DW3" s="32"/>
-      <c r="DX3" s="32">
+      <c r="DW3" s="13"/>
+      <c r="DX3" s="13">
         <v>2000</v>
       </c>
-      <c r="DY3" s="32"/>
-      <c r="DZ3" s="32">
+      <c r="DY3" s="13"/>
+      <c r="DZ3" s="13">
         <v>1800</v>
       </c>
-      <c r="EA3" s="32"/>
-      <c r="EB3" s="32">
+      <c r="EA3" s="13"/>
+      <c r="EB3" s="13">
         <v>3000</v>
       </c>
-      <c r="EC3" s="32"/>
-      <c r="ED3" s="32">
+      <c r="EC3" s="13"/>
+      <c r="ED3" s="13">
         <v>1000</v>
       </c>
-      <c r="EE3" s="32"/>
-      <c r="EF3" s="32"/>
-      <c r="EG3" s="32"/>
-      <c r="EH3" s="32"/>
-      <c r="EI3" s="32"/>
-      <c r="EJ3" s="32"/>
-      <c r="EK3" s="32"/>
-      <c r="EL3" s="32">
+      <c r="EE3" s="13"/>
+      <c r="EF3" s="13"/>
+      <c r="EG3" s="13"/>
+      <c r="EH3" s="13"/>
+      <c r="EI3" s="13"/>
+      <c r="EJ3" s="13"/>
+      <c r="EK3" s="13"/>
+      <c r="EL3" s="13">
         <v>2000</v>
       </c>
-      <c r="EM3" s="32"/>
-      <c r="EN3" s="32">
+      <c r="EM3" s="13"/>
+      <c r="EN3" s="13">
         <v>1000</v>
       </c>
-      <c r="EO3" s="32"/>
-      <c r="EP3" s="32">
+      <c r="EO3" s="13"/>
+      <c r="EP3" s="13">
         <v>1000</v>
       </c>
-      <c r="EQ3" s="32"/>
-      <c r="ER3" s="32">
+      <c r="EQ3" s="13"/>
+      <c r="ER3" s="13">
         <v>1000</v>
       </c>
-      <c r="ES3" s="32"/>
-      <c r="ET3" s="32">
+      <c r="ES3" s="13"/>
+      <c r="ET3" s="13">
         <v>500</v>
       </c>
-      <c r="EU3" s="32"/>
-      <c r="EV3" s="32">
+      <c r="EU3" s="13"/>
+      <c r="EV3" s="13">
         <v>1000</v>
       </c>
-      <c r="EW3" s="32"/>
-      <c r="EX3" s="32">
+      <c r="EW3" s="13"/>
+      <c r="EX3" s="13">
         <v>1500</v>
       </c>
-      <c r="EY3" s="32"/>
-      <c r="EZ3" s="32">
+      <c r="EY3" s="13"/>
+      <c r="EZ3" s="13">
         <v>900</v>
       </c>
-      <c r="FA3" s="32"/>
-      <c r="FB3" s="33">
+      <c r="FA3" s="13"/>
+      <c r="FB3" s="14">
         <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:158" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3723,794 +3762,794 @@
       <c r="FA4" s="3">
         <v>58</v>
       </c>
-      <c r="FB4" s="34"/>
+      <c r="FB4" s="15"/>
     </row>
     <row r="5" spans="1:158" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37">
-        <v>0</v>
-      </c>
-      <c r="J5" s="37">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37">
-        <v>0</v>
-      </c>
-      <c r="L5" s="37">
-        <v>0</v>
-      </c>
-      <c r="M5" s="37">
-        <v>0</v>
-      </c>
-      <c r="N5" s="37">
-        <v>0</v>
-      </c>
-      <c r="O5" s="37">
-        <v>0</v>
-      </c>
-      <c r="P5" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>0</v>
-      </c>
-      <c r="R5" s="37">
-        <v>0</v>
-      </c>
-      <c r="S5" s="37">
+      <c r="C5" s="34"/>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
         <v>45</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="16">
         <v>435</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="16">
         <v>1157</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="16">
         <v>1547</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="16">
         <v>685</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="16">
         <v>93</v>
       </c>
-      <c r="Y5" s="37">
+      <c r="Y5" s="16">
         <v>1343</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="16">
         <v>1718</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="16">
         <v>1998</v>
       </c>
-      <c r="AB5" s="37">
+      <c r="AB5" s="16">
         <v>2748</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="16">
         <v>3498</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="16">
         <v>4248</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="16">
         <v>4248</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="16">
         <v>3792</v>
       </c>
-      <c r="AG5" s="37">
+      <c r="AG5" s="16">
         <v>3792</v>
       </c>
-      <c r="AH5" s="37">
+      <c r="AH5" s="16">
         <v>3792</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="16">
         <v>2702</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="16">
         <v>2232</v>
       </c>
-      <c r="AK5" s="37">
+      <c r="AK5" s="16">
         <v>2232</v>
       </c>
-      <c r="AL5" s="37">
+      <c r="AL5" s="16">
         <v>1252</v>
       </c>
-      <c r="AM5" s="37">
+      <c r="AM5" s="16">
         <v>1012</v>
       </c>
-      <c r="AN5" s="37">
+      <c r="AN5" s="16">
         <v>92</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AO5" s="16">
         <v>122</v>
       </c>
-      <c r="AP5" s="37">
+      <c r="AP5" s="16">
         <v>762</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AQ5" s="16">
         <v>252</v>
       </c>
-      <c r="AR5" s="37">
+      <c r="AR5" s="16">
         <v>-3</v>
       </c>
-      <c r="AS5" s="37">
+      <c r="AS5" s="16">
         <v>107</v>
       </c>
-      <c r="AT5" s="37">
+      <c r="AT5" s="16">
         <v>437</v>
       </c>
-      <c r="AU5" s="37">
+      <c r="AU5" s="16">
         <v>-478</v>
       </c>
-      <c r="AV5" s="37">
+      <c r="AV5" s="16">
         <v>-1248</v>
       </c>
-      <c r="AW5" s="37">
+      <c r="AW5" s="16">
         <v>-568</v>
       </c>
-      <c r="AX5" s="37">
+      <c r="AX5" s="16">
         <v>-353</v>
       </c>
-      <c r="AY5" s="37">
+      <c r="AY5" s="16">
         <v>-163</v>
       </c>
-      <c r="AZ5" s="37">
+      <c r="AZ5" s="16">
         <v>807</v>
       </c>
-      <c r="BA5" s="37">
+      <c r="BA5" s="16">
         <v>767</v>
       </c>
-      <c r="BB5" s="37">
+      <c r="BB5" s="16">
         <v>1587</v>
       </c>
-      <c r="BC5" s="37">
+      <c r="BC5" s="16">
         <v>1887</v>
       </c>
-      <c r="BD5" s="37">
+      <c r="BD5" s="16">
         <v>1392</v>
       </c>
-      <c r="BE5" s="37">
+      <c r="BE5" s="16">
         <v>465</v>
       </c>
-      <c r="BF5" s="37">
+      <c r="BF5" s="16">
         <v>465</v>
       </c>
-      <c r="BG5" s="37">
+      <c r="BG5" s="16">
         <v>465</v>
       </c>
-      <c r="BH5" s="37">
+      <c r="BH5" s="16">
         <v>625</v>
       </c>
-      <c r="BI5" s="37">
+      <c r="BI5" s="16">
         <v>625</v>
       </c>
-      <c r="BJ5" s="37">
+      <c r="BJ5" s="16">
         <v>1125</v>
       </c>
-      <c r="BK5" s="37">
+      <c r="BK5" s="16">
         <v>1255</v>
       </c>
-      <c r="BL5" s="37">
+      <c r="BL5" s="16">
         <v>2255</v>
       </c>
-      <c r="BM5" s="37">
+      <c r="BM5" s="16">
         <v>3255</v>
       </c>
-      <c r="BN5" s="37">
+      <c r="BN5" s="16">
         <v>3040</v>
       </c>
-      <c r="BO5" s="37">
+      <c r="BO5" s="16">
         <v>2715</v>
       </c>
-      <c r="BP5" s="37">
+      <c r="BP5" s="16">
         <v>2290</v>
       </c>
-      <c r="BQ5" s="37">
+      <c r="BQ5" s="16">
         <v>2290</v>
       </c>
-      <c r="BR5" s="37">
+      <c r="BR5" s="16">
         <v>3010</v>
       </c>
-      <c r="BS5" s="37">
+      <c r="BS5" s="16">
         <v>2065</v>
       </c>
-      <c r="BT5" s="37">
+      <c r="BT5" s="16">
         <v>2765</v>
       </c>
-      <c r="BU5" s="37">
+      <c r="BU5" s="16">
         <v>1550</v>
       </c>
-      <c r="BV5" s="37">
+      <c r="BV5" s="16">
         <v>2250</v>
       </c>
-      <c r="BW5" s="37">
+      <c r="BW5" s="16">
         <v>2250</v>
       </c>
-      <c r="BX5" s="37">
+      <c r="BX5" s="16">
         <v>2950</v>
       </c>
-      <c r="BY5" s="37">
+      <c r="BY5" s="16">
         <v>2950</v>
       </c>
-      <c r="BZ5" s="37">
+      <c r="BZ5" s="16">
         <v>3140</v>
       </c>
-      <c r="CA5" s="37">
+      <c r="CA5" s="16">
         <v>3140</v>
       </c>
-      <c r="CB5" s="37">
+      <c r="CB5" s="16">
         <v>2895</v>
       </c>
-      <c r="CC5" s="37">
+      <c r="CC5" s="16">
         <v>2508</v>
       </c>
-      <c r="CD5" s="37">
+      <c r="CD5" s="16">
         <v>2508</v>
       </c>
-      <c r="CE5" s="37">
+      <c r="CE5" s="16">
         <v>2508</v>
       </c>
-      <c r="CF5" s="37">
+      <c r="CF5" s="16">
         <v>2508</v>
       </c>
-      <c r="CG5" s="37">
+      <c r="CG5" s="16">
         <v>2563</v>
       </c>
-      <c r="CH5" s="37">
+      <c r="CH5" s="16">
         <v>3118</v>
       </c>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37">
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16">
         <v>4618</v>
       </c>
-      <c r="CK5" s="37">
+      <c r="CK5" s="16">
         <v>4618</v>
       </c>
-      <c r="CL5" s="37">
+      <c r="CL5" s="16">
         <v>5368</v>
       </c>
-      <c r="CM5" s="37">
+      <c r="CM5" s="16">
         <v>4423</v>
       </c>
-      <c r="CN5" s="37">
+      <c r="CN5" s="16">
         <v>5123</v>
       </c>
-      <c r="CO5" s="37">
+      <c r="CO5" s="16">
         <v>4694</v>
       </c>
-      <c r="CP5" s="37">
+      <c r="CP5" s="16">
         <v>5394</v>
       </c>
-      <c r="CQ5" s="37">
+      <c r="CQ5" s="16">
         <v>5394</v>
       </c>
-      <c r="CR5" s="37">
+      <c r="CR5" s="16">
         <v>4504</v>
       </c>
-      <c r="CS5" s="37">
+      <c r="CS5" s="16">
         <v>4504</v>
       </c>
-      <c r="CT5" s="37">
+      <c r="CT5" s="16">
         <v>5504</v>
       </c>
-      <c r="CU5" s="37">
+      <c r="CU5" s="16">
         <v>5504</v>
       </c>
-      <c r="CV5" s="37">
+      <c r="CV5" s="16">
         <v>5630</v>
       </c>
-      <c r="CW5" s="37">
+      <c r="CW5" s="16">
         <v>5630</v>
       </c>
-      <c r="CX5" s="37">
+      <c r="CX5" s="16">
         <v>4685</v>
       </c>
-      <c r="CY5" s="37">
+      <c r="CY5" s="16">
         <v>4685</v>
       </c>
-      <c r="CZ5" s="37">
+      <c r="CZ5" s="16">
         <v>5485</v>
       </c>
-      <c r="DA5" s="37">
+      <c r="DA5" s="16">
         <v>5167</v>
       </c>
-      <c r="DB5" s="37">
+      <c r="DB5" s="16">
         <v>5967</v>
       </c>
-      <c r="DC5" s="37">
+      <c r="DC5" s="16">
         <v>5007</v>
       </c>
-      <c r="DD5" s="37">
+      <c r="DD5" s="16">
         <v>5039</v>
       </c>
-      <c r="DE5" s="37">
+      <c r="DE5" s="16">
         <v>5039</v>
       </c>
-      <c r="DF5" s="37">
+      <c r="DF5" s="16">
         <v>2846</v>
       </c>
-      <c r="DG5" s="37">
+      <c r="DG5" s="16">
         <v>2846</v>
       </c>
-      <c r="DH5" s="37">
+      <c r="DH5" s="16">
         <v>2701</v>
       </c>
-      <c r="DI5" s="37">
+      <c r="DI5" s="16">
         <v>2701</v>
       </c>
-      <c r="DJ5" s="37">
+      <c r="DJ5" s="16">
         <v>2179</v>
       </c>
-      <c r="DK5" s="37">
+      <c r="DK5" s="16">
         <v>2179</v>
       </c>
-      <c r="DL5" s="37">
+      <c r="DL5" s="16">
         <v>1469</v>
       </c>
-      <c r="DM5" s="37">
+      <c r="DM5" s="16">
         <v>1469</v>
       </c>
-      <c r="DN5" s="37">
+      <c r="DN5" s="16">
         <v>986</v>
       </c>
-      <c r="DO5" s="37">
+      <c r="DO5" s="16">
         <v>196</v>
       </c>
-      <c r="DP5" s="37">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="37">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="37">
+      <c r="DP5" s="16">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="16">
         <v>200</v>
       </c>
-      <c r="DS5" s="37">
+      <c r="DS5" s="16">
         <v>-745</v>
       </c>
-      <c r="DT5" s="37">
+      <c r="DT5" s="16">
         <v>255</v>
       </c>
-      <c r="DU5" s="37">
+      <c r="DU5" s="16">
         <v>255</v>
       </c>
-      <c r="DV5" s="37">
+      <c r="DV5" s="16">
         <v>110</v>
       </c>
-      <c r="DW5" s="37">
+      <c r="DW5" s="16">
         <v>110</v>
       </c>
-      <c r="DX5" s="37">
+      <c r="DX5" s="16">
         <v>2110</v>
       </c>
-      <c r="DY5" s="37">
+      <c r="DY5" s="16">
         <v>2110</v>
       </c>
-      <c r="DZ5" s="37">
+      <c r="DZ5" s="16">
         <v>3910</v>
       </c>
-      <c r="EA5" s="37">
+      <c r="EA5" s="16">
         <v>3910</v>
       </c>
-      <c r="EB5" s="37">
+      <c r="EB5" s="16">
         <v>5653</v>
       </c>
-      <c r="EC5" s="37">
+      <c r="EC5" s="16">
         <v>5293</v>
       </c>
-      <c r="ED5" s="37">
+      <c r="ED5" s="16">
         <v>4820</v>
       </c>
-      <c r="EE5" s="37">
+      <c r="EE5" s="16">
         <v>4820</v>
       </c>
-      <c r="EF5" s="37">
+      <c r="EF5" s="16">
         <v>4820</v>
       </c>
-      <c r="EG5" s="37">
+      <c r="EG5" s="16">
         <v>4820</v>
       </c>
-      <c r="EH5" s="37">
+      <c r="EH5" s="16">
         <v>4820</v>
       </c>
-      <c r="EI5" s="37">
+      <c r="EI5" s="16">
         <v>4820</v>
       </c>
-      <c r="EJ5" s="37">
+      <c r="EJ5" s="16">
         <v>3555</v>
       </c>
-      <c r="EK5" s="37">
+      <c r="EK5" s="16">
         <v>3555</v>
       </c>
-      <c r="EL5" s="37">
+      <c r="EL5" s="16">
         <v>2721</v>
       </c>
-      <c r="EM5" s="37">
+      <c r="EM5" s="16">
         <v>2721</v>
       </c>
-      <c r="EN5" s="37">
+      <c r="EN5" s="16">
         <v>3401</v>
       </c>
-      <c r="EO5" s="37">
+      <c r="EO5" s="16">
         <v>3401</v>
       </c>
-      <c r="EP5" s="37">
+      <c r="EP5" s="16">
         <v>3801</v>
       </c>
-      <c r="EQ5" s="37">
+      <c r="EQ5" s="16">
         <v>3801</v>
       </c>
-      <c r="ER5" s="37">
+      <c r="ER5" s="16">
         <v>4801</v>
       </c>
-      <c r="ES5" s="37">
+      <c r="ES5" s="16">
         <v>3422</v>
       </c>
-      <c r="ET5" s="37">
+      <c r="ET5" s="16">
         <v>3922</v>
       </c>
-      <c r="EU5" s="37">
+      <c r="EU5" s="16">
         <v>3922</v>
       </c>
-      <c r="EV5" s="37">
+      <c r="EV5" s="16">
         <v>4482</v>
       </c>
-      <c r="EW5" s="37">
+      <c r="EW5" s="16">
         <v>4482</v>
       </c>
-      <c r="EX5" s="37">
+      <c r="EX5" s="16">
         <v>5982</v>
       </c>
-      <c r="EY5" s="37">
+      <c r="EY5" s="16">
         <v>5982</v>
       </c>
-      <c r="EZ5" s="37">
+      <c r="EZ5" s="16">
         <v>6282</v>
       </c>
-      <c r="FA5" s="37">
+      <c r="FA5" s="16">
         <v>6224</v>
       </c>
-      <c r="FB5" s="38">
+      <c r="FB5" s="17">
         <v>7124</v>
       </c>
     </row>
     <row r="6" spans="1:158" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32">
+      <c r="C6" s="36"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13">
         <v>710</v>
       </c>
-      <c r="Q6" s="32">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
         <v>318</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="13">
         <v>850</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="13">
         <v>850</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="13">
         <v>940</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="13">
         <v>850</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="13">
         <v>850</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="13">
         <v>850</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="13">
         <v>1000</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="13">
         <v>700</v>
       </c>
-      <c r="AA6" s="32">
+      <c r="AA6" s="13">
         <v>700</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AB6" s="13">
         <v>700</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="13">
         <v>700</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="13">
         <v>700</v>
       </c>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="32">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="13">
         <v>300</v>
       </c>
-      <c r="AR6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="32">
+      <c r="AR6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="13">
         <v>600</v>
       </c>
-      <c r="AU6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="32">
+      <c r="AU6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="13">
         <v>1000</v>
       </c>
-      <c r="AW6" s="32">
+      <c r="AW6" s="13">
         <v>1000</v>
       </c>
-      <c r="AX6" s="32">
+      <c r="AX6" s="13">
         <v>1300</v>
       </c>
-      <c r="AY6" s="32">
+      <c r="AY6" s="13">
         <v>1300</v>
       </c>
-      <c r="AZ6" s="32">
+      <c r="AZ6" s="13">
         <v>1300</v>
       </c>
-      <c r="BA6" s="32">
+      <c r="BA6" s="13">
         <v>1300</v>
       </c>
-      <c r="BB6" s="32">
+      <c r="BB6" s="13">
         <v>1300</v>
       </c>
-      <c r="BC6" s="32">
+      <c r="BC6" s="13">
         <v>1000</v>
       </c>
-      <c r="BD6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="32">
+      <c r="BD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="13">
         <v>1000</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="32">
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13">
         <v>1000</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32">
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13">
         <v>1000</v>
       </c>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32">
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13">
         <v>450</v>
       </c>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32">
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13">
         <v>450</v>
       </c>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32">
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13">
         <v>450</v>
       </c>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32">
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13">
         <v>450</v>
       </c>
-      <c r="CA6" s="32">
+      <c r="CA6" s="13">
         <v>800</v>
       </c>
-      <c r="CB6" s="32">
+      <c r="CB6" s="13">
         <v>450</v>
       </c>
-      <c r="CC6" s="32">
+      <c r="CC6" s="13">
         <v>800</v>
       </c>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32">
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13">
         <v>800</v>
       </c>
-      <c r="CH6" s="32">
+      <c r="CH6" s="13">
         <v>800</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="32">
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13">
         <v>800</v>
       </c>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="32"/>
-      <c r="CM6" s="32"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="32"/>
-      <c r="CP6" s="32">
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="13"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13">
         <v>800</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32">
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13">
         <v>800</v>
       </c>
-      <c r="CS6" s="32"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="32"/>
-      <c r="CV6" s="32">
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13">
         <v>800</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32">
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13">
         <v>1000</v>
       </c>
-      <c r="CY6" s="32"/>
-      <c r="CZ6" s="32"/>
-      <c r="DA6" s="32"/>
-      <c r="DB6" s="32">
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13">
         <v>1000</v>
       </c>
-      <c r="DC6" s="32"/>
-      <c r="DD6" s="32">
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13">
         <v>800</v>
       </c>
-      <c r="DE6" s="32"/>
-      <c r="DF6" s="32">
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13">
         <v>800</v>
       </c>
-      <c r="DG6" s="32"/>
-      <c r="DH6" s="32">
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13">
         <v>600</v>
       </c>
-      <c r="DI6" s="32"/>
-      <c r="DJ6" s="32">
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13">
         <v>600</v>
       </c>
-      <c r="DK6" s="32"/>
-      <c r="DL6" s="32">
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13">
         <v>600</v>
       </c>
-      <c r="DM6" s="32"/>
-      <c r="DN6" s="32">
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13">
         <v>600</v>
       </c>
-      <c r="DO6" s="32"/>
-      <c r="DP6" s="32"/>
-      <c r="DQ6" s="32"/>
-      <c r="DR6" s="32"/>
-      <c r="DS6" s="32"/>
-      <c r="DT6" s="32"/>
-      <c r="DU6" s="32"/>
-      <c r="DV6" s="32">
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13">
         <v>600</v>
       </c>
-      <c r="DW6" s="32"/>
-      <c r="DX6" s="32">
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13">
         <v>800</v>
       </c>
-      <c r="DY6" s="32"/>
-      <c r="DZ6" s="32">
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13">
         <v>600</v>
       </c>
-      <c r="EA6" s="32"/>
-      <c r="EB6" s="32">
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13">
         <v>1800</v>
       </c>
-      <c r="EC6" s="32"/>
-      <c r="ED6" s="32">
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13">
         <v>700</v>
       </c>
-      <c r="EE6" s="32"/>
-      <c r="EF6" s="32">
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13">
         <v>1200</v>
       </c>
-      <c r="EG6" s="32"/>
-      <c r="EH6" s="32">
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13">
         <v>2000</v>
       </c>
-      <c r="EI6" s="32"/>
-      <c r="EJ6" s="32"/>
-      <c r="EK6" s="32"/>
-      <c r="EL6" s="32">
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="13">
         <v>1000</v>
       </c>
-      <c r="EM6" s="32"/>
-      <c r="EN6" s="32">
+      <c r="EM6" s="13"/>
+      <c r="EN6" s="13">
         <v>1000</v>
       </c>
-      <c r="EO6" s="32"/>
-      <c r="EP6" s="32">
+      <c r="EO6" s="13"/>
+      <c r="EP6" s="13">
         <v>1000</v>
       </c>
-      <c r="EQ6" s="32"/>
-      <c r="ER6" s="32">
+      <c r="EQ6" s="13"/>
+      <c r="ER6" s="13">
         <v>1000</v>
       </c>
-      <c r="ES6" s="32"/>
-      <c r="ET6" s="32">
+      <c r="ES6" s="13"/>
+      <c r="ET6" s="13">
         <v>500</v>
       </c>
-      <c r="EU6" s="32"/>
-      <c r="EV6" s="32">
+      <c r="EU6" s="13"/>
+      <c r="EV6" s="13">
         <v>500</v>
       </c>
-      <c r="EW6" s="32"/>
-      <c r="EX6" s="32">
+      <c r="EW6" s="13"/>
+      <c r="EX6" s="13">
         <v>1000</v>
       </c>
-      <c r="EY6" s="32"/>
-      <c r="EZ6" s="32">
+      <c r="EY6" s="13"/>
+      <c r="EZ6" s="13">
         <v>700</v>
       </c>
-      <c r="FA6" s="32"/>
-      <c r="FB6" s="33">
+      <c r="FA6" s="13"/>
+      <c r="FB6" s="14">
         <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:158" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4819,832 +4858,832 @@
       <c r="FA7" s="3">
         <v>360</v>
       </c>
-      <c r="FB7" s="34"/>
+      <c r="FB7" s="15"/>
     </row>
     <row r="8" spans="1:158" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
-      </c>
-      <c r="G8" s="37">
-        <v>0</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <v>0</v>
-      </c>
-      <c r="J8" s="37">
-        <v>0</v>
-      </c>
-      <c r="K8" s="37">
-        <v>0</v>
-      </c>
-      <c r="L8" s="37">
-        <v>0</v>
-      </c>
-      <c r="M8" s="37">
-        <v>0</v>
-      </c>
-      <c r="N8" s="37">
-        <v>0</v>
-      </c>
-      <c r="O8" s="37">
-        <v>0</v>
-      </c>
-      <c r="P8" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="37">
-        <v>0</v>
-      </c>
-      <c r="R8" s="37">
-        <v>0</v>
-      </c>
-      <c r="S8" s="37">
+      <c r="C8" s="34"/>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
         <v>135</v>
       </c>
-      <c r="T8" s="37">
-        <v>0</v>
-      </c>
-      <c r="U8" s="37">
-        <v>0</v>
-      </c>
-      <c r="V8" s="37">
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
         <v>680</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="16">
         <v>158</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="16">
         <v>1008</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="16">
         <v>931</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="16">
         <v>1256</v>
       </c>
-      <c r="AA8" s="37">
+      <c r="AA8" s="16">
         <v>1606</v>
       </c>
-      <c r="AB8" s="37">
+      <c r="AB8" s="16">
         <v>2306</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8" s="16">
         <v>3006</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AD8" s="16">
         <v>3706</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AE8" s="16">
         <v>3706</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AF8" s="16">
         <v>3706</v>
       </c>
-      <c r="AG8" s="37">
+      <c r="AG8" s="16">
         <v>3706</v>
       </c>
-      <c r="AH8" s="37">
+      <c r="AH8" s="16">
         <v>3706</v>
       </c>
-      <c r="AI8" s="37">
+      <c r="AI8" s="16">
         <v>3706</v>
       </c>
-      <c r="AJ8" s="37">
+      <c r="AJ8" s="16">
         <v>3706</v>
       </c>
-      <c r="AK8" s="37">
+      <c r="AK8" s="16">
         <v>3706</v>
       </c>
-      <c r="AL8" s="37">
+      <c r="AL8" s="16">
         <v>3486</v>
       </c>
-      <c r="AM8" s="37">
+      <c r="AM8" s="16">
         <v>3486</v>
       </c>
-      <c r="AN8" s="37">
+      <c r="AN8" s="16">
         <v>2906</v>
       </c>
-      <c r="AO8" s="37">
+      <c r="AO8" s="16">
         <v>2196</v>
       </c>
-      <c r="AP8" s="37">
+      <c r="AP8" s="16">
         <v>1901</v>
       </c>
-      <c r="AQ8" s="37">
+      <c r="AQ8" s="16">
         <v>737</v>
       </c>
-      <c r="AR8" s="37">
+      <c r="AR8" s="16">
         <v>362</v>
       </c>
-      <c r="AS8" s="37">
+      <c r="AS8" s="16">
         <v>-13</v>
       </c>
-      <c r="AT8" s="37">
+      <c r="AT8" s="16">
         <v>587</v>
       </c>
-      <c r="AU8" s="37">
+      <c r="AU8" s="16">
         <v>212</v>
       </c>
-      <c r="AV8" s="37">
+      <c r="AV8" s="16">
         <v>-403</v>
       </c>
-      <c r="AW8" s="37">
+      <c r="AW8" s="16">
         <v>-28</v>
       </c>
-      <c r="AX8" s="37">
+      <c r="AX8" s="16">
         <v>562</v>
       </c>
-      <c r="AY8" s="37">
+      <c r="AY8" s="16">
         <v>569</v>
       </c>
-      <c r="AZ8" s="37">
+      <c r="AZ8" s="16">
         <v>1617</v>
       </c>
-      <c r="BA8" s="37">
+      <c r="BA8" s="16">
         <v>1954</v>
       </c>
-      <c r="BB8" s="37">
+      <c r="BB8" s="16">
         <v>3254</v>
       </c>
-      <c r="BC8" s="37">
+      <c r="BC8" s="16">
         <v>4254</v>
       </c>
-      <c r="BD8" s="37">
+      <c r="BD8" s="16">
         <v>3604</v>
       </c>
-      <c r="BE8" s="37">
+      <c r="BE8" s="16">
         <v>4259</v>
       </c>
-      <c r="BF8" s="37">
+      <c r="BF8" s="16">
         <v>4259</v>
       </c>
-      <c r="BG8" s="37">
+      <c r="BG8" s="16">
         <v>3894</v>
       </c>
-      <c r="BH8" s="37">
+      <c r="BH8" s="16">
         <v>3184</v>
       </c>
-      <c r="BI8" s="37">
+      <c r="BI8" s="16">
         <v>2474</v>
       </c>
-      <c r="BJ8" s="37">
+      <c r="BJ8" s="16">
         <v>2474</v>
       </c>
-      <c r="BK8" s="37">
+      <c r="BK8" s="16">
         <v>2474</v>
       </c>
-      <c r="BL8" s="37">
+      <c r="BL8" s="16">
         <v>1322</v>
       </c>
-      <c r="BM8" s="37">
+      <c r="BM8" s="16">
         <v>2322</v>
       </c>
-      <c r="BN8" s="37">
+      <c r="BN8" s="16">
         <v>1947</v>
       </c>
-      <c r="BO8" s="37">
+      <c r="BO8" s="16">
         <v>2947</v>
       </c>
-      <c r="BP8" s="37">
+      <c r="BP8" s="16">
         <v>2287</v>
       </c>
-      <c r="BQ8" s="37">
+      <c r="BQ8" s="16">
         <v>2287</v>
       </c>
-      <c r="BR8" s="37">
+      <c r="BR8" s="16">
         <v>2022</v>
       </c>
-      <c r="BS8" s="37">
+      <c r="BS8" s="16">
         <v>1612</v>
       </c>
-      <c r="BT8" s="37">
+      <c r="BT8" s="16">
         <v>2062</v>
       </c>
-      <c r="BU8" s="37">
+      <c r="BU8" s="16">
         <v>1482</v>
       </c>
-      <c r="BV8" s="37">
+      <c r="BV8" s="16">
         <v>1932</v>
       </c>
-      <c r="BW8" s="37">
+      <c r="BW8" s="16">
         <v>1932</v>
       </c>
-      <c r="BX8" s="37">
+      <c r="BX8" s="16">
         <v>2162</v>
       </c>
-      <c r="BY8" s="37">
+      <c r="BY8" s="16">
         <v>2162</v>
       </c>
-      <c r="BZ8" s="37">
+      <c r="BZ8" s="16">
         <v>2612</v>
       </c>
-      <c r="CA8" s="37">
+      <c r="CA8" s="16">
         <v>3096</v>
       </c>
-      <c r="CB8" s="37">
+      <c r="CB8" s="16">
         <v>3546</v>
       </c>
-      <c r="CC8" s="37">
+      <c r="CC8" s="16">
         <v>3556</v>
       </c>
-      <c r="CD8" s="37">
+      <c r="CD8" s="16">
         <v>3312</v>
       </c>
-      <c r="CE8" s="37">
+      <c r="CE8" s="16">
         <v>2522</v>
       </c>
-      <c r="CF8" s="37">
+      <c r="CF8" s="16">
         <v>2522</v>
       </c>
-      <c r="CG8" s="37">
+      <c r="CG8" s="16">
         <v>3322</v>
       </c>
-      <c r="CH8" s="37">
+      <c r="CH8" s="16">
         <v>4122</v>
       </c>
-      <c r="CI8" s="37">
+      <c r="CI8" s="16">
         <v>3332</v>
       </c>
-      <c r="CJ8" s="37">
+      <c r="CJ8" s="16">
         <v>4132</v>
       </c>
-      <c r="CK8" s="37">
+      <c r="CK8" s="16">
         <v>4132</v>
       </c>
-      <c r="CL8" s="37">
+      <c r="CL8" s="16">
         <v>4132</v>
       </c>
-      <c r="CM8" s="37">
+      <c r="CM8" s="16">
         <v>2862</v>
       </c>
-      <c r="CN8" s="37">
+      <c r="CN8" s="16">
         <v>2862</v>
       </c>
-      <c r="CO8" s="37">
+      <c r="CO8" s="16">
         <v>2862</v>
       </c>
-      <c r="CP8" s="37">
+      <c r="CP8" s="16">
         <v>3662</v>
       </c>
-      <c r="CQ8" s="37">
+      <c r="CQ8" s="16">
         <v>3662</v>
       </c>
-      <c r="CR8" s="37">
+      <c r="CR8" s="16">
         <v>3672</v>
       </c>
-      <c r="CS8" s="37">
+      <c r="CS8" s="16">
         <v>3672</v>
       </c>
-      <c r="CT8" s="37">
+      <c r="CT8" s="16">
         <v>3487</v>
       </c>
-      <c r="CU8" s="37">
+      <c r="CU8" s="16">
         <v>2472</v>
       </c>
-      <c r="CV8" s="37">
+      <c r="CV8" s="16">
         <v>2534</v>
       </c>
-      <c r="CW8" s="37">
+      <c r="CW8" s="16">
         <v>2379</v>
       </c>
-      <c r="CX8" s="37">
+      <c r="CX8" s="16">
         <v>3379</v>
       </c>
-      <c r="CY8" s="37">
+      <c r="CY8" s="16">
         <v>3379</v>
       </c>
-      <c r="CZ8" s="37">
+      <c r="CZ8" s="16">
         <v>3379</v>
       </c>
-      <c r="DA8" s="37">
+      <c r="DA8" s="16">
         <v>3379</v>
       </c>
-      <c r="DB8" s="37">
+      <c r="DB8" s="16">
         <v>4379</v>
       </c>
-      <c r="DC8" s="37">
+      <c r="DC8" s="16">
         <v>4379</v>
       </c>
-      <c r="DD8" s="37">
+      <c r="DD8" s="16">
         <v>4903</v>
       </c>
-      <c r="DE8" s="37">
+      <c r="DE8" s="16">
         <v>4903</v>
       </c>
-      <c r="DF8" s="37">
+      <c r="DF8" s="16">
         <v>4356</v>
       </c>
-      <c r="DG8" s="37">
+      <c r="DG8" s="16">
         <v>4356</v>
       </c>
-      <c r="DH8" s="37">
+      <c r="DH8" s="16">
         <v>4548</v>
       </c>
-      <c r="DI8" s="37">
+      <c r="DI8" s="16">
         <v>4548</v>
       </c>
-      <c r="DJ8" s="37">
+      <c r="DJ8" s="16">
         <v>4004</v>
       </c>
-      <c r="DK8" s="37">
+      <c r="DK8" s="16">
         <v>4004</v>
       </c>
-      <c r="DL8" s="37">
+      <c r="DL8" s="16">
         <v>3814</v>
       </c>
-      <c r="DM8" s="37">
+      <c r="DM8" s="16">
         <v>3814</v>
       </c>
-      <c r="DN8" s="37">
+      <c r="DN8" s="16">
         <v>2535</v>
       </c>
-      <c r="DO8" s="37">
+      <c r="DO8" s="16">
         <v>2535</v>
       </c>
-      <c r="DP8" s="37">
+      <c r="DP8" s="16">
         <v>1743</v>
       </c>
-      <c r="DQ8" s="37">
+      <c r="DQ8" s="16">
         <v>1743</v>
       </c>
-      <c r="DR8" s="37">
+      <c r="DR8" s="16">
         <v>1743</v>
       </c>
-      <c r="DS8" s="37">
+      <c r="DS8" s="16">
         <v>1231</v>
       </c>
-      <c r="DT8" s="37">
+      <c r="DT8" s="16">
         <v>746</v>
       </c>
-      <c r="DU8" s="37">
+      <c r="DU8" s="16">
         <v>746</v>
       </c>
-      <c r="DV8" s="37">
+      <c r="DV8" s="16">
         <v>674</v>
       </c>
-      <c r="DW8" s="37">
+      <c r="DW8" s="16">
         <v>674</v>
       </c>
-      <c r="DX8" s="37">
+      <c r="DX8" s="16">
         <v>-106</v>
       </c>
-      <c r="DY8" s="37">
+      <c r="DY8" s="16">
         <v>-106</v>
       </c>
-      <c r="DZ8" s="37">
+      <c r="DZ8" s="16">
         <v>230</v>
       </c>
-      <c r="EA8" s="37">
+      <c r="EA8" s="16">
         <v>230</v>
       </c>
-      <c r="EB8" s="37">
+      <c r="EB8" s="16">
         <v>1502</v>
       </c>
-      <c r="EC8" s="37">
+      <c r="EC8" s="16">
         <v>1022</v>
       </c>
-      <c r="ED8" s="37">
+      <c r="ED8" s="16">
         <v>1122</v>
       </c>
-      <c r="EE8" s="37">
+      <c r="EE8" s="16">
         <v>1122</v>
       </c>
-      <c r="EF8" s="37">
+      <c r="EF8" s="16">
         <v>1396</v>
       </c>
-      <c r="EG8" s="37">
+      <c r="EG8" s="16">
         <v>1396</v>
       </c>
-      <c r="EH8" s="37">
+      <c r="EH8" s="16">
         <v>3396</v>
       </c>
-      <c r="EI8" s="37">
+      <c r="EI8" s="16">
         <v>3396</v>
       </c>
-      <c r="EJ8" s="37">
+      <c r="EJ8" s="16">
         <v>3396</v>
       </c>
-      <c r="EK8" s="37">
+      <c r="EK8" s="16">
         <v>3396</v>
       </c>
-      <c r="EL8" s="37">
+      <c r="EL8" s="16">
         <v>2318</v>
       </c>
-      <c r="EM8" s="37">
+      <c r="EM8" s="16">
         <v>2318</v>
       </c>
-      <c r="EN8" s="37">
+      <c r="EN8" s="16">
         <v>3318</v>
       </c>
-      <c r="EO8" s="37">
+      <c r="EO8" s="16">
         <v>3318</v>
       </c>
-      <c r="EP8" s="37">
+      <c r="EP8" s="16">
         <v>3286</v>
       </c>
-      <c r="EQ8" s="37">
+      <c r="EQ8" s="16">
         <v>3286</v>
       </c>
-      <c r="ER8" s="37">
+      <c r="ER8" s="16">
         <v>4286</v>
       </c>
-      <c r="ES8" s="37">
+      <c r="ES8" s="16">
         <v>3686</v>
       </c>
-      <c r="ET8" s="37">
+      <c r="ET8" s="16">
         <v>4186</v>
       </c>
-      <c r="EU8" s="37">
+      <c r="EU8" s="16">
         <v>4186</v>
       </c>
-      <c r="EV8" s="37">
+      <c r="EV8" s="16">
         <v>3392</v>
       </c>
-      <c r="EW8" s="37">
+      <c r="EW8" s="16">
         <v>3392</v>
       </c>
-      <c r="EX8" s="37">
+      <c r="EX8" s="16">
         <v>4392</v>
       </c>
-      <c r="EY8" s="37">
+      <c r="EY8" s="16">
         <v>4348</v>
       </c>
-      <c r="EZ8" s="37">
+      <c r="EZ8" s="16">
         <v>5048</v>
       </c>
-      <c r="FA8" s="37">
+      <c r="FA8" s="16">
         <v>4688</v>
       </c>
-      <c r="FB8" s="38">
+      <c r="FB8" s="17">
         <v>5388</v>
       </c>
     </row>
     <row r="9" spans="1:158" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32">
+      <c r="C9" s="36"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13">
         <v>1905</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="13">
         <v>635</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="13">
         <v>2430</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="13">
         <v>2760</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="13">
         <v>2635</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="13">
         <v>2635</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="13">
         <v>1800</v>
       </c>
-      <c r="W9" s="32">
+      <c r="W9" s="13">
         <v>1800</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="13">
         <v>3600</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="13">
         <v>3500</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="Z9" s="13">
         <v>2100</v>
       </c>
-      <c r="AA9" s="32">
+      <c r="AA9" s="13">
         <v>2100</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AB9" s="13">
         <v>2100</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="13">
         <v>2100</v>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="13">
         <v>2100</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="32">
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
         <v>1200</v>
       </c>
-      <c r="AH9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="32">
+      <c r="AH9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="13">
         <v>800</v>
       </c>
-      <c r="AM9" s="32">
+      <c r="AM9" s="13">
         <v>1600</v>
       </c>
-      <c r="AN9" s="32">
+      <c r="AN9" s="13">
         <v>800</v>
       </c>
-      <c r="AO9" s="32">
+      <c r="AO9" s="13">
         <v>1000</v>
       </c>
-      <c r="AP9" s="32">
+      <c r="AP9" s="13">
         <v>1600</v>
       </c>
-      <c r="AQ9" s="32">
+      <c r="AQ9" s="13">
         <v>1600</v>
       </c>
-      <c r="AR9" s="32">
+      <c r="AR9" s="13">
         <v>800</v>
       </c>
-      <c r="AS9" s="32">
+      <c r="AS9" s="13">
         <v>2000</v>
       </c>
-      <c r="AT9" s="32">
+      <c r="AT9" s="13">
         <v>2000</v>
       </c>
-      <c r="AU9" s="32">
+      <c r="AU9" s="13">
         <v>3800</v>
       </c>
-      <c r="AV9" s="32">
+      <c r="AV9" s="13">
         <v>1000</v>
       </c>
-      <c r="AW9" s="32">
+      <c r="AW9" s="13">
         <v>3000</v>
       </c>
-      <c r="AX9" s="32">
+      <c r="AX9" s="13">
         <v>4000</v>
       </c>
-      <c r="AY9" s="32">
+      <c r="AY9" s="13">
         <v>4000</v>
       </c>
-      <c r="AZ9" s="32">
+      <c r="AZ9" s="13">
         <v>4000</v>
       </c>
-      <c r="BA9" s="32">
+      <c r="BA9" s="13">
         <v>4000</v>
       </c>
-      <c r="BB9" s="32">
+      <c r="BB9" s="13">
         <v>4000</v>
       </c>
-      <c r="BC9" s="32">
+      <c r="BC9" s="13">
         <v>3000</v>
       </c>
-      <c r="BD9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="32">
+      <c r="BD9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="13">
         <v>3000</v>
       </c>
-      <c r="BF9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BF9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13">
         <v>500</v>
       </c>
-      <c r="BK9" s="32">
+      <c r="BK9" s="13">
         <v>1000</v>
       </c>
-      <c r="BL9" s="32">
+      <c r="BL9" s="13">
         <v>2000</v>
       </c>
-      <c r="BM9" s="32">
+      <c r="BM9" s="13">
         <v>1000</v>
       </c>
-      <c r="BN9" s="32">
+      <c r="BN9" s="13">
         <v>2000</v>
       </c>
-      <c r="BO9" s="32">
+      <c r="BO9" s="13">
         <v>2000</v>
       </c>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13">
         <v>1650</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32">
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13">
         <v>1650</v>
       </c>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13">
         <v>1650</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32">
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13">
         <v>1650</v>
       </c>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13">
         <v>1650</v>
       </c>
-      <c r="CA9" s="32">
+      <c r="CA9" s="13">
         <v>1000</v>
       </c>
-      <c r="CB9" s="32">
+      <c r="CB9" s="13">
         <v>1650</v>
       </c>
-      <c r="CC9" s="32">
+      <c r="CC9" s="13">
         <v>1000</v>
       </c>
-      <c r="CD9" s="32"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32">
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13">
         <v>1000</v>
       </c>
-      <c r="CK9" s="32">
+      <c r="CK9" s="13">
         <v>1000</v>
       </c>
-      <c r="CL9" s="32"/>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="32">
+      <c r="CL9" s="13"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13">
         <v>1500</v>
       </c>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32">
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="13">
         <v>1500</v>
       </c>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32">
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13">
         <v>2000</v>
       </c>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="32">
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13">
         <v>1500</v>
       </c>
-      <c r="CU9" s="32"/>
-      <c r="CV9" s="32">
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13">
         <v>1500</v>
       </c>
-      <c r="CW9" s="32"/>
-      <c r="CX9" s="32">
+      <c r="CW9" s="13"/>
+      <c r="CX9" s="13">
         <v>2000</v>
       </c>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="32">
+      <c r="CY9" s="13"/>
+      <c r="CZ9" s="13">
         <v>1500</v>
       </c>
-      <c r="DA9" s="32"/>
-      <c r="DB9" s="32">
+      <c r="DA9" s="13"/>
+      <c r="DB9" s="13">
         <v>1500</v>
       </c>
-      <c r="DC9" s="32"/>
-      <c r="DD9" s="32">
+      <c r="DC9" s="13"/>
+      <c r="DD9" s="13">
         <v>2000</v>
       </c>
-      <c r="DE9" s="32"/>
-      <c r="DF9" s="32">
+      <c r="DE9" s="13"/>
+      <c r="DF9" s="13">
         <v>2000</v>
       </c>
-      <c r="DG9" s="32"/>
-      <c r="DH9" s="32">
+      <c r="DG9" s="13"/>
+      <c r="DH9" s="13">
         <v>2000</v>
       </c>
-      <c r="DI9" s="32"/>
-      <c r="DJ9" s="32">
+      <c r="DI9" s="13"/>
+      <c r="DJ9" s="13">
         <v>2000</v>
       </c>
-      <c r="DK9" s="32"/>
-      <c r="DL9" s="32">
+      <c r="DK9" s="13"/>
+      <c r="DL9" s="13">
         <v>2000</v>
       </c>
-      <c r="DM9" s="32"/>
-      <c r="DN9" s="32">
+      <c r="DM9" s="13"/>
+      <c r="DN9" s="13">
         <v>2000</v>
       </c>
-      <c r="DO9" s="32"/>
-      <c r="DP9" s="32">
+      <c r="DO9" s="13"/>
+      <c r="DP9" s="13">
         <v>4000</v>
       </c>
-      <c r="DQ9" s="32"/>
-      <c r="DR9" s="32">
+      <c r="DQ9" s="13"/>
+      <c r="DR9" s="13">
         <v>4500</v>
       </c>
-      <c r="DS9" s="32"/>
-      <c r="DT9" s="32">
+      <c r="DS9" s="13"/>
+      <c r="DT9" s="13">
         <v>4500</v>
       </c>
-      <c r="DU9" s="32"/>
-      <c r="DV9" s="32">
+      <c r="DU9" s="13"/>
+      <c r="DV9" s="13">
         <v>4500</v>
       </c>
-      <c r="DW9" s="32"/>
-      <c r="DX9" s="32">
+      <c r="DW9" s="13"/>
+      <c r="DX9" s="13">
         <v>4250</v>
       </c>
-      <c r="DY9" s="32"/>
-      <c r="DZ9" s="32">
+      <c r="DY9" s="13"/>
+      <c r="DZ9" s="13">
         <v>4000</v>
       </c>
-      <c r="EA9" s="32"/>
-      <c r="EB9" s="32">
+      <c r="EA9" s="13"/>
+      <c r="EB9" s="13">
         <v>2000</v>
       </c>
-      <c r="EC9" s="32"/>
-      <c r="ED9" s="32">
+      <c r="EC9" s="13"/>
+      <c r="ED9" s="13">
         <v>2000</v>
       </c>
-      <c r="EE9" s="32"/>
-      <c r="EF9" s="32"/>
-      <c r="EG9" s="32"/>
-      <c r="EH9" s="32">
+      <c r="EE9" s="13"/>
+      <c r="EF9" s="13"/>
+      <c r="EG9" s="13"/>
+      <c r="EH9" s="13">
         <v>1000</v>
       </c>
-      <c r="EI9" s="32"/>
-      <c r="EJ9" s="32">
+      <c r="EI9" s="13"/>
+      <c r="EJ9" s="13">
         <v>2000</v>
       </c>
-      <c r="EK9" s="32"/>
-      <c r="EL9" s="32">
+      <c r="EK9" s="13"/>
+      <c r="EL9" s="13">
         <v>3000</v>
       </c>
-      <c r="EM9" s="32"/>
-      <c r="EN9" s="32">
+      <c r="EM9" s="13"/>
+      <c r="EN9" s="13">
         <v>4750</v>
       </c>
-      <c r="EO9" s="32"/>
-      <c r="EP9" s="32">
+      <c r="EO9" s="13"/>
+      <c r="EP9" s="13">
         <v>4000</v>
       </c>
-      <c r="EQ9" s="32"/>
-      <c r="ER9" s="32">
+      <c r="EQ9" s="13"/>
+      <c r="ER9" s="13">
         <v>4000</v>
       </c>
-      <c r="ES9" s="32"/>
-      <c r="ET9" s="32">
+      <c r="ES9" s="13"/>
+      <c r="ET9" s="13">
         <v>2000</v>
       </c>
-      <c r="EU9" s="32"/>
-      <c r="EV9" s="32">
+      <c r="EU9" s="13"/>
+      <c r="EV9" s="13">
         <v>1000</v>
       </c>
-      <c r="EW9" s="32"/>
-      <c r="EX9" s="32">
+      <c r="EW9" s="13"/>
+      <c r="EX9" s="13">
         <v>3000</v>
       </c>
-      <c r="EY9" s="32"/>
-      <c r="EZ9" s="32">
+      <c r="EY9" s="13"/>
+      <c r="EZ9" s="13">
         <v>1500</v>
       </c>
-      <c r="FA9" s="32"/>
-      <c r="FB9" s="33">
+      <c r="FA9" s="13"/>
+      <c r="FB9" s="14">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:158" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5989,835 +6028,835 @@
         <v>2586</v>
       </c>
       <c r="FA10" s="3"/>
-      <c r="FB10" s="34">
+      <c r="FB10" s="15">
         <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:158" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37">
-        <v>0</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0</v>
-      </c>
-      <c r="G11" s="37">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0</v>
-      </c>
-      <c r="J11" s="37">
-        <v>0</v>
-      </c>
-      <c r="K11" s="37">
-        <v>0</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <v>0</v>
-      </c>
-      <c r="N11" s="37">
-        <v>0</v>
-      </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>0</v>
-      </c>
-      <c r="R11" s="37">
+      <c r="C11" s="34"/>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
         <v>90</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="16">
         <v>75</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="16">
         <v>1440</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U11" s="16">
         <v>1327</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="16">
         <v>1527</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="16">
         <v>322</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="16">
         <v>15</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y11" s="16">
         <v>635</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="16">
         <v>1280</v>
       </c>
-      <c r="AA11" s="37">
+      <c r="AA11" s="16">
         <v>1745</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB11" s="16">
         <v>3590</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC11" s="16">
         <v>5690</v>
       </c>
-      <c r="AD11" s="37">
+      <c r="AD11" s="16">
         <v>7790</v>
       </c>
-      <c r="AE11" s="37">
+      <c r="AE11" s="16">
         <v>7790</v>
       </c>
-      <c r="AF11" s="37">
+      <c r="AF11" s="16">
         <v>7155</v>
       </c>
-      <c r="AG11" s="37">
+      <c r="AG11" s="16">
         <v>8355</v>
       </c>
-      <c r="AH11" s="37">
+      <c r="AH11" s="16">
         <v>7720</v>
       </c>
-      <c r="AI11" s="37">
+      <c r="AI11" s="16">
         <v>7720</v>
       </c>
-      <c r="AJ11" s="37">
+      <c r="AJ11" s="16">
         <v>7085</v>
       </c>
-      <c r="AK11" s="37">
+      <c r="AK11" s="16">
         <v>4545</v>
       </c>
-      <c r="AL11" s="37">
+      <c r="AL11" s="16">
         <v>5025</v>
       </c>
-      <c r="AM11" s="37">
+      <c r="AM11" s="16">
         <v>5990</v>
       </c>
-      <c r="AN11" s="37">
+      <c r="AN11" s="16">
         <v>3845</v>
       </c>
-      <c r="AO11" s="37">
+      <c r="AO11" s="16">
         <v>2940</v>
       </c>
-      <c r="AP11" s="37">
+      <c r="AP11" s="16">
         <v>3635</v>
       </c>
-      <c r="AQ11" s="37">
+      <c r="AQ11" s="16">
         <v>2090</v>
       </c>
-      <c r="AR11" s="37">
+      <c r="AR11" s="16">
         <v>1845</v>
       </c>
-      <c r="AS11" s="37">
+      <c r="AS11" s="16">
         <v>-380</v>
       </c>
-      <c r="AT11" s="37">
+      <c r="AT11" s="16">
         <v>-810</v>
       </c>
-      <c r="AU11" s="37">
+      <c r="AU11" s="16">
         <v>-75</v>
       </c>
-      <c r="AV11" s="37">
+      <c r="AV11" s="16">
         <v>-1910</v>
       </c>
-      <c r="AW11" s="37">
+      <c r="AW11" s="16">
         <v>-1565</v>
       </c>
-      <c r="AX11" s="37">
+      <c r="AX11" s="16">
         <v>-105</v>
       </c>
-      <c r="AY11" s="37">
+      <c r="AY11" s="16">
         <v>312</v>
       </c>
-      <c r="AZ11" s="37">
+      <c r="AZ11" s="16">
         <v>3042</v>
       </c>
-      <c r="BA11" s="37">
+      <c r="BA11" s="16">
         <v>6139</v>
       </c>
-      <c r="BB11" s="37">
+      <c r="BB11" s="16">
         <v>7711</v>
       </c>
-      <c r="BC11" s="37">
+      <c r="BC11" s="16">
         <v>7679</v>
       </c>
-      <c r="BD11" s="37">
+      <c r="BD11" s="16">
         <v>4974</v>
       </c>
-      <c r="BE11" s="37">
+      <c r="BE11" s="16">
         <v>5469</v>
       </c>
-      <c r="BF11" s="37">
+      <c r="BF11" s="16">
         <v>4949</v>
       </c>
-      <c r="BG11" s="37">
+      <c r="BG11" s="16">
         <v>4314</v>
       </c>
-      <c r="BH11" s="37">
+      <c r="BH11" s="16">
         <v>2634</v>
       </c>
-      <c r="BI11" s="37">
+      <c r="BI11" s="16">
         <v>1999</v>
       </c>
-      <c r="BJ11" s="37">
+      <c r="BJ11" s="16">
         <v>2499</v>
       </c>
-      <c r="BK11" s="37">
+      <c r="BK11" s="16">
         <v>3499</v>
       </c>
-      <c r="BL11" s="37">
+      <c r="BL11" s="16">
         <v>3362</v>
       </c>
-      <c r="BM11" s="37">
+      <c r="BM11" s="16">
         <v>4362</v>
       </c>
-      <c r="BN11" s="37">
+      <c r="BN11" s="16">
         <v>5092</v>
       </c>
-      <c r="BO11" s="37">
+      <c r="BO11" s="16">
         <v>6482</v>
       </c>
-      <c r="BP11" s="37">
+      <c r="BP11" s="16">
         <v>4705</v>
       </c>
-      <c r="BQ11" s="37">
+      <c r="BQ11" s="16">
         <v>4705</v>
       </c>
-      <c r="BR11" s="37">
+      <c r="BR11" s="16">
         <v>4911</v>
       </c>
-      <c r="BS11" s="37">
+      <c r="BS11" s="16">
         <v>3834</v>
       </c>
-      <c r="BT11" s="37">
+      <c r="BT11" s="16">
         <v>5484</v>
       </c>
-      <c r="BU11" s="37">
+      <c r="BU11" s="16">
         <v>5484</v>
       </c>
-      <c r="BV11" s="37">
+      <c r="BV11" s="16">
         <v>5690</v>
       </c>
-      <c r="BW11" s="37">
+      <c r="BW11" s="16">
         <v>5690</v>
       </c>
-      <c r="BX11" s="37">
+      <c r="BX11" s="16">
         <v>5366</v>
       </c>
-      <c r="BY11" s="37">
+      <c r="BY11" s="16">
         <v>5366</v>
       </c>
-      <c r="BZ11" s="37">
+      <c r="BZ11" s="16">
         <v>7016</v>
       </c>
-      <c r="CA11" s="37">
+      <c r="CA11" s="16">
         <v>7294</v>
       </c>
-      <c r="CB11" s="37">
+      <c r="CB11" s="16">
         <v>8944</v>
       </c>
-      <c r="CC11" s="37">
+      <c r="CC11" s="16">
         <v>9508</v>
       </c>
-      <c r="CD11" s="37">
+      <c r="CD11" s="16">
         <v>9001</v>
       </c>
-      <c r="CE11" s="37">
+      <c r="CE11" s="16">
         <v>8279</v>
       </c>
-      <c r="CF11" s="37">
+      <c r="CF11" s="16">
         <v>8279</v>
       </c>
-      <c r="CG11" s="37">
+      <c r="CG11" s="16">
         <v>6113</v>
       </c>
-      <c r="CH11" s="37">
+      <c r="CH11" s="16">
         <v>6113</v>
       </c>
-      <c r="CI11" s="37">
+      <c r="CI11" s="16">
         <v>5391</v>
       </c>
-      <c r="CJ11" s="37">
+      <c r="CJ11" s="16">
         <v>6149</v>
       </c>
-      <c r="CK11" s="37">
+      <c r="CK11" s="16">
         <v>7149</v>
       </c>
-      <c r="CL11" s="37">
+      <c r="CL11" s="16">
         <v>6427</v>
       </c>
-      <c r="CM11" s="37">
+      <c r="CM11" s="16">
         <v>4151</v>
       </c>
-      <c r="CN11" s="37">
+      <c r="CN11" s="16">
         <v>5651</v>
       </c>
-      <c r="CO11" s="37">
+      <c r="CO11" s="16">
         <v>5651</v>
       </c>
-      <c r="CP11" s="37">
+      <c r="CP11" s="16">
         <v>7151</v>
       </c>
-      <c r="CQ11" s="37">
+      <c r="CQ11" s="16">
         <v>7151</v>
       </c>
-      <c r="CR11" s="37">
+      <c r="CR11" s="16">
         <v>8429</v>
       </c>
-      <c r="CS11" s="37">
+      <c r="CS11" s="16">
         <v>8429</v>
       </c>
-      <c r="CT11" s="37">
+      <c r="CT11" s="16">
         <v>8974</v>
       </c>
-      <c r="CU11" s="37">
+      <c r="CU11" s="16">
         <v>7796</v>
       </c>
-      <c r="CV11" s="37">
+      <c r="CV11" s="16">
         <v>7396</v>
       </c>
-      <c r="CW11" s="37">
+      <c r="CW11" s="16">
         <v>7396</v>
       </c>
-      <c r="CX11" s="37">
+      <c r="CX11" s="16">
         <v>5786</v>
       </c>
-      <c r="CY11" s="37">
+      <c r="CY11" s="16">
         <v>5786</v>
       </c>
-      <c r="CZ11" s="37">
+      <c r="CZ11" s="16">
         <v>7286</v>
       </c>
-      <c r="DA11" s="37">
+      <c r="DA11" s="16">
         <v>6076</v>
       </c>
-      <c r="DB11" s="37">
+      <c r="DB11" s="16">
         <v>7576</v>
       </c>
-      <c r="DC11" s="37">
+      <c r="DC11" s="16">
         <v>7576</v>
       </c>
-      <c r="DD11" s="37">
+      <c r="DD11" s="16">
         <v>8712</v>
       </c>
-      <c r="DE11" s="37">
+      <c r="DE11" s="16">
         <v>5102</v>
       </c>
-      <c r="DF11" s="37">
+      <c r="DF11" s="16">
         <v>3780</v>
       </c>
-      <c r="DG11" s="37">
+      <c r="DG11" s="16">
         <v>3780</v>
       </c>
-      <c r="DH11" s="37">
+      <c r="DH11" s="16">
         <v>2892</v>
       </c>
-      <c r="DI11" s="37">
+      <c r="DI11" s="16">
         <v>2892</v>
       </c>
-      <c r="DJ11" s="37">
+      <c r="DJ11" s="16">
         <v>-352</v>
       </c>
-      <c r="DK11" s="37">
+      <c r="DK11" s="16">
         <v>-352</v>
       </c>
-      <c r="DL11" s="37">
+      <c r="DL11" s="16">
         <v>926</v>
       </c>
-      <c r="DM11" s="37">
+      <c r="DM11" s="16">
         <v>926</v>
       </c>
-      <c r="DN11" s="37">
+      <c r="DN11" s="16">
         <v>-189</v>
       </c>
-      <c r="DO11" s="37">
+      <c r="DO11" s="16">
         <v>-189</v>
       </c>
-      <c r="DP11" s="37">
+      <c r="DP11" s="16">
         <v>-471</v>
       </c>
-      <c r="DQ11" s="37">
+      <c r="DQ11" s="16">
         <v>-471</v>
       </c>
-      <c r="DR11" s="37">
+      <c r="DR11" s="16">
         <v>888</v>
       </c>
-      <c r="DS11" s="37">
+      <c r="DS11" s="16">
         <v>166</v>
       </c>
-      <c r="DT11" s="37">
+      <c r="DT11" s="16">
         <v>3944</v>
       </c>
-      <c r="DU11" s="37">
+      <c r="DU11" s="16">
         <v>3944</v>
       </c>
-      <c r="DV11" s="37">
+      <c r="DV11" s="16">
         <v>5100</v>
       </c>
-      <c r="DW11" s="37">
+      <c r="DW11" s="16">
         <v>5100</v>
       </c>
-      <c r="DX11" s="37">
+      <c r="DX11" s="16">
         <v>8630</v>
       </c>
-      <c r="DY11" s="37">
+      <c r="DY11" s="16">
         <v>8630</v>
       </c>
-      <c r="DZ11" s="37">
+      <c r="DZ11" s="16">
         <v>9030</v>
       </c>
-      <c r="EA11" s="37">
+      <c r="EA11" s="16">
         <v>9030</v>
       </c>
-      <c r="EB11" s="37">
+      <c r="EB11" s="16">
         <v>9266</v>
       </c>
-      <c r="EC11" s="37">
+      <c r="EC11" s="16">
         <v>9266</v>
       </c>
-      <c r="ED11" s="37">
+      <c r="ED11" s="16">
         <v>3492</v>
       </c>
-      <c r="EE11" s="37">
+      <c r="EE11" s="16">
         <v>3492</v>
       </c>
-      <c r="EF11" s="37">
+      <c r="EF11" s="16">
         <v>2050</v>
       </c>
-      <c r="EG11" s="37">
+      <c r="EG11" s="16">
         <v>2050</v>
       </c>
-      <c r="EH11" s="37">
+      <c r="EH11" s="16">
         <v>2816</v>
       </c>
-      <c r="EI11" s="37">
+      <c r="EI11" s="16">
         <v>2816</v>
       </c>
-      <c r="EJ11" s="37">
+      <c r="EJ11" s="16">
         <v>3636</v>
       </c>
-      <c r="EK11" s="37">
+      <c r="EK11" s="16">
         <v>3636</v>
       </c>
-      <c r="EL11" s="37">
+      <c r="EL11" s="16">
         <v>4953</v>
       </c>
-      <c r="EM11" s="37">
+      <c r="EM11" s="16">
         <v>4953</v>
       </c>
-      <c r="EN11" s="37">
+      <c r="EN11" s="16">
         <v>8259</v>
       </c>
-      <c r="EO11" s="37">
+      <c r="EO11" s="16">
         <v>8259</v>
       </c>
-      <c r="EP11" s="37">
+      <c r="EP11" s="16">
         <v>12259</v>
       </c>
-      <c r="EQ11" s="37">
+      <c r="EQ11" s="16">
         <v>12259</v>
       </c>
-      <c r="ER11" s="37">
+      <c r="ER11" s="16">
         <v>16259</v>
       </c>
-      <c r="ES11" s="37">
+      <c r="ES11" s="16">
         <v>14980</v>
       </c>
-      <c r="ET11" s="37">
+      <c r="ET11" s="16">
         <v>16980</v>
       </c>
-      <c r="EU11" s="37">
+      <c r="EU11" s="16">
         <v>16980</v>
       </c>
-      <c r="EV11" s="37">
+      <c r="EV11" s="16">
         <v>16838</v>
       </c>
-      <c r="EW11" s="37">
+      <c r="EW11" s="16">
         <v>16838</v>
       </c>
-      <c r="EX11" s="37">
+      <c r="EX11" s="16">
         <v>18960</v>
       </c>
-      <c r="EY11" s="37">
+      <c r="EY11" s="16">
         <v>17818</v>
       </c>
-      <c r="EZ11" s="37">
+      <c r="EZ11" s="16">
         <v>16732</v>
       </c>
-      <c r="FA11" s="37">
+      <c r="FA11" s="16">
         <v>16732</v>
       </c>
-      <c r="FB11" s="38">
+      <c r="FB11" s="17">
         <v>16680</v>
       </c>
     </row>
     <row r="12" spans="1:158" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32">
+      <c r="C12" s="36"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13">
         <v>1590</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="13">
         <v>530</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="13">
         <v>1750</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="13">
         <v>1200</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="13">
         <v>2150</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="13">
         <v>2860</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="13">
         <v>1600</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="13">
         <v>1600</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="13">
         <v>4130</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="13">
         <v>3500</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="13">
         <v>2100</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="13">
         <v>2100</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="13">
         <v>2100</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="13">
         <v>2100</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="13">
         <v>2100</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="13">
         <v>1500</v>
       </c>
-      <c r="AF12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="32">
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
         <v>1200</v>
       </c>
-      <c r="AH12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="32">
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
         <v>400</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="13">
         <v>1600</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="13">
         <v>800</v>
       </c>
-      <c r="AO12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="32">
+      <c r="AO12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="13">
         <v>1500</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="13">
         <v>1500</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="13">
         <v>800</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="13">
         <v>1000</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="13">
         <v>1000</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AU12" s="13">
         <v>1000</v>
       </c>
-      <c r="AV12" s="32">
+      <c r="AV12" s="13">
         <v>600</v>
       </c>
-      <c r="AW12" s="32">
+      <c r="AW12" s="13">
         <v>1000</v>
       </c>
-      <c r="AX12" s="32">
+      <c r="AX12" s="13">
         <v>4000</v>
       </c>
-      <c r="AY12" s="32">
+      <c r="AY12" s="13">
         <v>4000</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="AZ12" s="13">
         <v>4500</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BA12" s="13">
         <v>4500</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BB12" s="13">
         <v>4000</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BC12" s="13">
         <v>3000</v>
       </c>
-      <c r="BD12" s="32">
+      <c r="BD12" s="13">
         <v>3000</v>
       </c>
-      <c r="BE12" s="32">
+      <c r="BE12" s="13">
         <v>2000</v>
       </c>
-      <c r="BF12" s="32">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="32">
+      <c r="BF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13">
         <v>500</v>
       </c>
-      <c r="BM12" s="32">
+      <c r="BM12" s="13">
         <v>1000</v>
       </c>
-      <c r="BN12" s="32">
+      <c r="BN12" s="13">
         <v>2000</v>
       </c>
-      <c r="BO12" s="32">
+      <c r="BO12" s="13">
         <v>2000</v>
       </c>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="32"/>
-      <c r="BR12" s="32">
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13">
         <v>1450</v>
       </c>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="32">
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13">
         <v>1450</v>
       </c>
-      <c r="BU12" s="32"/>
-      <c r="BV12" s="32">
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13">
         <v>1450</v>
       </c>
-      <c r="BW12" s="32"/>
-      <c r="BX12" s="32">
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13">
         <v>1450</v>
       </c>
-      <c r="BY12" s="32"/>
-      <c r="BZ12" s="32">
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13">
         <v>1450</v>
       </c>
-      <c r="CA12" s="32"/>
-      <c r="CB12" s="32">
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13">
         <v>1450</v>
       </c>
-      <c r="CC12" s="32"/>
-      <c r="CD12" s="32"/>
-      <c r="CE12" s="32"/>
-      <c r="CF12" s="32"/>
-      <c r="CG12" s="32">
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13">
         <v>1000</v>
       </c>
-      <c r="CH12" s="32">
+      <c r="CH12" s="13">
         <v>1300</v>
       </c>
-      <c r="CI12" s="32"/>
-      <c r="CJ12" s="32">
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13">
         <v>1300</v>
       </c>
-      <c r="CK12" s="32">
+      <c r="CK12" s="13">
         <v>1000</v>
       </c>
-      <c r="CL12" s="32"/>
-      <c r="CM12" s="32"/>
-      <c r="CN12" s="32">
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="13">
         <v>1000</v>
       </c>
-      <c r="CO12" s="32"/>
-      <c r="CP12" s="32">
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="13">
         <v>1000</v>
       </c>
-      <c r="CQ12" s="32"/>
-      <c r="CR12" s="32">
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="13">
         <v>1500</v>
       </c>
-      <c r="CS12" s="32"/>
-      <c r="CT12" s="32">
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="13">
         <v>1000</v>
       </c>
-      <c r="CU12" s="32"/>
-      <c r="CV12" s="32">
+      <c r="CU12" s="13"/>
+      <c r="CV12" s="13">
         <v>1000</v>
       </c>
-      <c r="CW12" s="32"/>
-      <c r="CX12" s="32">
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="13">
         <v>1500</v>
       </c>
-      <c r="CY12" s="32"/>
-      <c r="CZ12" s="32">
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13">
         <v>2000</v>
       </c>
-      <c r="DA12" s="32"/>
-      <c r="DB12" s="32">
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="13">
         <v>2000</v>
       </c>
-      <c r="DC12" s="32"/>
-      <c r="DD12" s="32">
+      <c r="DC12" s="13"/>
+      <c r="DD12" s="13">
         <v>2000</v>
       </c>
-      <c r="DE12" s="32"/>
-      <c r="DF12" s="32">
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="13">
         <v>2000</v>
       </c>
-      <c r="DG12" s="32"/>
-      <c r="DH12" s="32">
+      <c r="DG12" s="13"/>
+      <c r="DH12" s="13">
         <v>2000</v>
       </c>
-      <c r="DI12" s="32"/>
-      <c r="DJ12" s="32">
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="13">
         <v>2000</v>
       </c>
-      <c r="DK12" s="32"/>
-      <c r="DL12" s="32">
+      <c r="DK12" s="13"/>
+      <c r="DL12" s="13">
         <v>2000</v>
       </c>
-      <c r="DM12" s="32"/>
-      <c r="DN12" s="32">
+      <c r="DM12" s="13"/>
+      <c r="DN12" s="13">
         <v>2000</v>
       </c>
-      <c r="DO12" s="32"/>
-      <c r="DP12" s="32">
+      <c r="DO12" s="13"/>
+      <c r="DP12" s="13">
         <v>2000</v>
       </c>
-      <c r="DQ12" s="32"/>
-      <c r="DR12" s="32">
+      <c r="DQ12" s="13"/>
+      <c r="DR12" s="13">
         <v>2000</v>
       </c>
-      <c r="DS12" s="32"/>
-      <c r="DT12" s="32">
+      <c r="DS12" s="13"/>
+      <c r="DT12" s="13">
         <v>2000</v>
       </c>
-      <c r="DU12" s="32"/>
-      <c r="DV12" s="32">
+      <c r="DU12" s="13"/>
+      <c r="DV12" s="13">
         <v>2000</v>
       </c>
-      <c r="DW12" s="32"/>
-      <c r="DX12" s="32">
+      <c r="DW12" s="13"/>
+      <c r="DX12" s="13">
         <v>2500</v>
       </c>
-      <c r="DY12" s="32"/>
-      <c r="DZ12" s="32">
+      <c r="DY12" s="13"/>
+      <c r="DZ12" s="13">
         <v>2000</v>
       </c>
-      <c r="EA12" s="32"/>
-      <c r="EB12" s="32">
+      <c r="EA12" s="13"/>
+      <c r="EB12" s="13">
         <v>1000</v>
       </c>
-      <c r="EC12" s="32"/>
-      <c r="ED12" s="32">
+      <c r="EC12" s="13"/>
+      <c r="ED12" s="13">
         <v>1000</v>
       </c>
-      <c r="EE12" s="32"/>
-      <c r="EF12" s="32">
+      <c r="EE12" s="13"/>
+      <c r="EF12" s="13">
         <v>1500</v>
       </c>
-      <c r="EG12" s="32"/>
-      <c r="EH12" s="32">
+      <c r="EG12" s="13"/>
+      <c r="EH12" s="13">
         <v>2000</v>
       </c>
-      <c r="EI12" s="32"/>
-      <c r="EJ12" s="32">
+      <c r="EI12" s="13"/>
+      <c r="EJ12" s="13">
         <v>2000</v>
       </c>
-      <c r="EK12" s="32"/>
-      <c r="EL12" s="32">
+      <c r="EK12" s="13"/>
+      <c r="EL12" s="13">
         <v>2000</v>
       </c>
-      <c r="EM12" s="32"/>
-      <c r="EN12" s="32">
+      <c r="EM12" s="13"/>
+      <c r="EN12" s="13">
         <v>3000</v>
       </c>
-      <c r="EO12" s="32"/>
-      <c r="EP12" s="32">
+      <c r="EO12" s="13"/>
+      <c r="EP12" s="13">
         <v>2000</v>
       </c>
-      <c r="EQ12" s="32"/>
-      <c r="ER12" s="32">
+      <c r="EQ12" s="13"/>
+      <c r="ER12" s="13">
         <v>3000</v>
       </c>
-      <c r="ES12" s="32"/>
-      <c r="ET12" s="32">
+      <c r="ES12" s="13"/>
+      <c r="ET12" s="13">
         <v>1000</v>
       </c>
-      <c r="EU12" s="32"/>
-      <c r="EV12" s="32">
+      <c r="EU12" s="13"/>
+      <c r="EV12" s="13">
         <v>3000</v>
       </c>
-      <c r="EW12" s="32"/>
-      <c r="EX12" s="32">
+      <c r="EW12" s="13"/>
+      <c r="EX12" s="13">
         <v>1500</v>
       </c>
-      <c r="EY12" s="32"/>
-      <c r="EZ12" s="32">
+      <c r="EY12" s="13"/>
+      <c r="EZ12" s="13">
         <v>1500</v>
       </c>
-      <c r="FA12" s="32"/>
-      <c r="FB12" s="33">
+      <c r="FA12" s="13"/>
+      <c r="FB12" s="14">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:158" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -7167,503 +7206,503 @@
       <c r="FA13" s="3">
         <v>288</v>
       </c>
-      <c r="FB13" s="34">
+      <c r="FB13" s="15">
         <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:158" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0</v>
-      </c>
-      <c r="G14" s="37">
-        <v>0</v>
-      </c>
-      <c r="H14" s="37">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37">
-        <v>0</v>
-      </c>
-      <c r="J14" s="37">
-        <v>0</v>
-      </c>
-      <c r="K14" s="37">
-        <v>0</v>
-      </c>
-      <c r="L14" s="37">
-        <v>0</v>
-      </c>
-      <c r="M14" s="37">
-        <v>0</v>
-      </c>
-      <c r="N14" s="37">
-        <v>0</v>
-      </c>
-      <c r="O14" s="37">
-        <v>0</v>
-      </c>
-      <c r="P14" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="37">
-        <v>0</v>
-      </c>
-      <c r="R14" s="37">
+      <c r="C14" s="34"/>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
         <v>70</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="16">
         <v>210</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="16">
         <v>420</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="16">
         <v>815</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="16">
         <v>200</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="16">
         <v>2</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="16">
         <v>62</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="16">
         <v>30</v>
       </c>
-      <c r="Z14" s="37">
+      <c r="Z14" s="16">
         <v>271</v>
       </c>
-      <c r="AA14" s="37">
+      <c r="AA14" s="16">
         <v>431</v>
       </c>
-      <c r="AB14" s="37">
+      <c r="AB14" s="16">
         <v>421</v>
       </c>
-      <c r="AC14" s="37">
+      <c r="AC14" s="16">
         <v>2521</v>
       </c>
-      <c r="AD14" s="37">
+      <c r="AD14" s="16">
         <v>4091</v>
       </c>
-      <c r="AE14" s="37">
+      <c r="AE14" s="16">
         <v>5591</v>
       </c>
-      <c r="AF14" s="37">
+      <c r="AF14" s="16">
         <v>5591</v>
       </c>
-      <c r="AG14" s="37">
+      <c r="AG14" s="16">
         <v>6791</v>
       </c>
-      <c r="AH14" s="37">
+      <c r="AH14" s="16">
         <v>5731</v>
       </c>
-      <c r="AI14" s="37">
+      <c r="AI14" s="16">
         <v>5361</v>
       </c>
-      <c r="AJ14" s="37">
+      <c r="AJ14" s="16">
         <v>4598</v>
       </c>
-      <c r="AK14" s="37">
+      <c r="AK14" s="16">
         <v>3538</v>
       </c>
-      <c r="AL14" s="37">
+      <c r="AL14" s="16">
         <v>2878</v>
       </c>
-      <c r="AM14" s="37">
+      <c r="AM14" s="16">
         <v>3500</v>
       </c>
-      <c r="AN14" s="37">
+      <c r="AN14" s="16">
         <v>3567</v>
       </c>
-      <c r="AO14" s="37">
+      <c r="AO14" s="16">
         <v>2454</v>
       </c>
-      <c r="AP14" s="37">
+      <c r="AP14" s="16">
         <v>3424</v>
       </c>
-      <c r="AQ14" s="37">
+      <c r="AQ14" s="16">
         <v>3416</v>
       </c>
-      <c r="AR14" s="37">
+      <c r="AR14" s="16">
         <v>1295</v>
       </c>
-      <c r="AS14" s="37">
+      <c r="AS14" s="16">
         <v>482</v>
       </c>
-      <c r="AT14" s="37">
+      <c r="AT14" s="16">
         <v>128</v>
       </c>
-      <c r="AU14" s="37">
+      <c r="AU14" s="16">
         <v>-462</v>
       </c>
-      <c r="AV14" s="37">
+      <c r="AV14" s="16">
         <v>-1997</v>
       </c>
-      <c r="AW14" s="37">
+      <c r="AW14" s="16">
         <v>-2505</v>
       </c>
-      <c r="AX14" s="37">
+      <c r="AX14" s="16">
         <v>-1930</v>
       </c>
-      <c r="AY14" s="37">
+      <c r="AY14" s="16">
         <v>-2075</v>
       </c>
-      <c r="AZ14" s="37">
+      <c r="AZ14" s="16">
         <v>-660</v>
       </c>
-      <c r="BA14" s="37">
+      <c r="BA14" s="16">
         <v>2005</v>
       </c>
-      <c r="BB14" s="37">
+      <c r="BB14" s="16">
         <v>4497</v>
       </c>
-      <c r="BC14" s="37">
+      <c r="BC14" s="16">
         <v>5048</v>
       </c>
-      <c r="BD14" s="37">
+      <c r="BD14" s="16">
         <v>7668</v>
       </c>
-      <c r="BE14" s="37">
+      <c r="BE14" s="16">
         <v>8173</v>
       </c>
-      <c r="BF14" s="37">
+      <c r="BF14" s="16">
         <v>7725</v>
       </c>
-      <c r="BG14" s="37">
+      <c r="BG14" s="16">
         <v>7475</v>
       </c>
-      <c r="BH14" s="37">
+      <c r="BH14" s="16">
         <v>6945</v>
       </c>
-      <c r="BI14" s="37">
+      <c r="BI14" s="16">
         <v>6945</v>
       </c>
-      <c r="BJ14" s="37">
+      <c r="BJ14" s="16">
         <v>6945</v>
       </c>
-      <c r="BK14" s="37">
+      <c r="BK14" s="16">
         <v>6121</v>
       </c>
-      <c r="BL14" s="37">
+      <c r="BL14" s="16">
         <v>5481</v>
       </c>
-      <c r="BM14" s="37">
+      <c r="BM14" s="16">
         <v>6481</v>
       </c>
-      <c r="BN14" s="37">
+      <c r="BN14" s="16">
         <v>6361</v>
       </c>
-      <c r="BO14" s="37">
+      <c r="BO14" s="16">
         <v>7068</v>
       </c>
-      <c r="BP14" s="37">
+      <c r="BP14" s="16">
         <v>6458</v>
       </c>
-      <c r="BQ14" s="37">
+      <c r="BQ14" s="16">
         <v>5848</v>
       </c>
-      <c r="BR14" s="37">
+      <c r="BR14" s="16">
         <v>5648</v>
       </c>
-      <c r="BS14" s="37">
+      <c r="BS14" s="16">
         <v>4428</v>
       </c>
-      <c r="BT14" s="37">
+      <c r="BT14" s="16">
         <v>5878</v>
       </c>
-      <c r="BU14" s="37">
+      <c r="BU14" s="16">
         <v>5268</v>
       </c>
-      <c r="BV14" s="37">
+      <c r="BV14" s="16">
         <v>5498</v>
       </c>
-      <c r="BW14" s="37">
+      <c r="BW14" s="16">
         <v>5498</v>
       </c>
-      <c r="BX14" s="37">
+      <c r="BX14" s="16">
         <v>6948</v>
       </c>
-      <c r="BY14" s="37">
+      <c r="BY14" s="16">
         <v>6948</v>
       </c>
-      <c r="BZ14" s="37">
+      <c r="BZ14" s="16">
         <v>8118</v>
       </c>
-      <c r="CA14" s="37">
+      <c r="CA14" s="16">
         <v>8118</v>
       </c>
-      <c r="CB14" s="37">
+      <c r="CB14" s="16">
         <v>7128</v>
       </c>
-      <c r="CC14" s="37">
+      <c r="CC14" s="16">
         <v>7128</v>
       </c>
-      <c r="CD14" s="37">
+      <c r="CD14" s="16">
         <v>5908</v>
       </c>
-      <c r="CE14" s="37">
+      <c r="CE14" s="16">
         <v>5908</v>
       </c>
-      <c r="CF14" s="37">
+      <c r="CF14" s="16">
         <v>5908</v>
       </c>
-      <c r="CG14" s="37">
+      <c r="CG14" s="16">
         <v>5688</v>
       </c>
-      <c r="CH14" s="37">
+      <c r="CH14" s="16">
         <v>6988</v>
       </c>
-      <c r="CI14" s="37"/>
-      <c r="CJ14" s="37">
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16">
         <v>6655</v>
       </c>
-      <c r="CK14" s="37">
+      <c r="CK14" s="16">
         <v>7655</v>
       </c>
-      <c r="CL14" s="37">
+      <c r="CL14" s="16">
         <v>7655</v>
       </c>
-      <c r="CM14" s="37">
+      <c r="CM14" s="16">
         <v>6287</v>
       </c>
-      <c r="CN14" s="37">
+      <c r="CN14" s="16">
         <v>7287</v>
       </c>
-      <c r="CO14" s="37">
+      <c r="CO14" s="16">
         <v>7004</v>
       </c>
-      <c r="CP14" s="37">
+      <c r="CP14" s="16">
         <v>8004</v>
       </c>
-      <c r="CQ14" s="37">
+      <c r="CQ14" s="16">
         <v>8004</v>
       </c>
-      <c r="CR14" s="37">
+      <c r="CR14" s="16">
         <v>2794</v>
       </c>
-      <c r="CS14" s="37">
+      <c r="CS14" s="16">
         <v>2794</v>
       </c>
-      <c r="CT14" s="37">
+      <c r="CT14" s="16">
         <v>3514</v>
       </c>
-      <c r="CU14" s="37">
+      <c r="CU14" s="16">
         <v>2264</v>
       </c>
-      <c r="CV14" s="37">
+      <c r="CV14" s="16">
         <v>2976</v>
       </c>
-      <c r="CW14" s="37">
+      <c r="CW14" s="16">
         <v>2482</v>
       </c>
-      <c r="CX14" s="37">
+      <c r="CX14" s="16">
         <v>2152</v>
       </c>
-      <c r="CY14" s="37">
+      <c r="CY14" s="16">
         <v>2152</v>
       </c>
-      <c r="CZ14" s="37">
+      <c r="CZ14" s="16">
         <v>4152</v>
       </c>
-      <c r="DA14" s="37">
+      <c r="DA14" s="16">
         <v>4152</v>
       </c>
-      <c r="DB14" s="37">
+      <c r="DB14" s="16">
         <v>6152</v>
       </c>
-      <c r="DC14" s="37">
+      <c r="DC14" s="16">
         <v>5542</v>
       </c>
-      <c r="DD14" s="37">
+      <c r="DD14" s="16">
         <v>5942</v>
       </c>
-      <c r="DE14" s="37">
+      <c r="DE14" s="16">
         <v>5332</v>
       </c>
-      <c r="DF14" s="37">
+      <c r="DF14" s="16">
         <v>4590</v>
       </c>
-      <c r="DG14" s="37">
+      <c r="DG14" s="16">
         <v>3980</v>
       </c>
-      <c r="DH14" s="37">
+      <c r="DH14" s="16">
         <v>3862</v>
       </c>
-      <c r="DI14" s="37">
+      <c r="DI14" s="16">
         <v>3862</v>
       </c>
-      <c r="DJ14" s="37">
+      <c r="DJ14" s="16">
         <v>4734</v>
       </c>
-      <c r="DK14" s="37">
+      <c r="DK14" s="16">
         <v>4734</v>
       </c>
-      <c r="DL14" s="37">
+      <c r="DL14" s="16">
         <v>5879</v>
       </c>
-      <c r="DM14" s="37">
+      <c r="DM14" s="16">
         <v>5269</v>
       </c>
-      <c r="DN14" s="37">
+      <c r="DN14" s="16">
         <v>4839</v>
       </c>
-      <c r="DO14" s="37">
+      <c r="DO14" s="16">
         <v>4839</v>
       </c>
-      <c r="DP14" s="37">
+      <c r="DP14" s="16">
         <v>5009</v>
       </c>
-      <c r="DQ14" s="37">
+      <c r="DQ14" s="16">
         <v>5009</v>
       </c>
-      <c r="DR14" s="37">
+      <c r="DR14" s="16">
         <v>6399</v>
       </c>
-      <c r="DS14" s="37">
+      <c r="DS14" s="16">
         <v>4347</v>
       </c>
-      <c r="DT14" s="37">
+      <c r="DT14" s="16">
         <v>5497</v>
       </c>
-      <c r="DU14" s="37">
+      <c r="DU14" s="16">
         <v>4887</v>
       </c>
-      <c r="DV14" s="37">
+      <c r="DV14" s="16">
         <v>1676</v>
       </c>
-      <c r="DW14" s="37">
+      <c r="DW14" s="16">
         <v>1676</v>
       </c>
-      <c r="DX14" s="37">
+      <c r="DX14" s="16">
         <v>3566</v>
       </c>
-      <c r="DY14" s="37">
+      <c r="DY14" s="16">
         <v>3566</v>
       </c>
-      <c r="DZ14" s="37">
+      <c r="DZ14" s="16">
         <v>3328</v>
       </c>
-      <c r="EA14" s="37">
+      <c r="EA14" s="16">
         <v>3328</v>
       </c>
-      <c r="EB14" s="37">
+      <c r="EB14" s="16">
         <v>4328</v>
       </c>
-      <c r="EC14" s="37">
+      <c r="EC14" s="16">
         <v>4328</v>
       </c>
-      <c r="ED14" s="37">
+      <c r="ED14" s="16">
         <v>4318</v>
       </c>
-      <c r="EE14" s="37">
+      <c r="EE14" s="16">
         <v>4318</v>
       </c>
-      <c r="EF14" s="37">
+      <c r="EF14" s="16">
         <v>4094</v>
       </c>
-      <c r="EG14" s="37">
+      <c r="EG14" s="16">
         <v>4094</v>
       </c>
-      <c r="EH14" s="37">
+      <c r="EH14" s="16">
         <v>5684</v>
       </c>
-      <c r="EI14" s="37">
+      <c r="EI14" s="16">
         <v>5684</v>
       </c>
-      <c r="EJ14" s="37">
+      <c r="EJ14" s="16">
         <v>6099</v>
       </c>
-      <c r="EK14" s="37">
+      <c r="EK14" s="16">
         <v>6099</v>
       </c>
-      <c r="EL14" s="37">
+      <c r="EL14" s="16">
         <v>2883</v>
       </c>
-      <c r="EM14" s="37">
+      <c r="EM14" s="16">
         <v>2883</v>
       </c>
-      <c r="EN14" s="37">
+      <c r="EN14" s="16">
         <v>5753</v>
       </c>
-      <c r="EO14" s="37">
+      <c r="EO14" s="16">
         <v>5753</v>
       </c>
-      <c r="EP14" s="37">
+      <c r="EP14" s="16">
         <v>7107</v>
       </c>
-      <c r="EQ14" s="37">
+      <c r="EQ14" s="16">
         <v>7107</v>
       </c>
-      <c r="ER14" s="37">
+      <c r="ER14" s="16">
         <v>9497</v>
       </c>
-      <c r="ES14" s="37">
+      <c r="ES14" s="16">
         <v>9497</v>
       </c>
-      <c r="ET14" s="37">
+      <c r="ET14" s="16">
         <v>10497</v>
       </c>
-      <c r="EU14" s="37">
+      <c r="EU14" s="16">
         <v>10497</v>
       </c>
-      <c r="EV14" s="37">
+      <c r="EV14" s="16">
         <v>11393</v>
       </c>
-      <c r="EW14" s="37">
+      <c r="EW14" s="16">
         <v>11393</v>
       </c>
-      <c r="EX14" s="37">
+      <c r="EX14" s="16">
         <v>12893</v>
       </c>
-      <c r="EY14" s="37">
+      <c r="EY14" s="16">
         <v>11707</v>
       </c>
-      <c r="EZ14" s="37">
+      <c r="EZ14" s="16">
         <v>12381</v>
       </c>
-      <c r="FA14" s="37">
+      <c r="FA14" s="16">
         <v>12093</v>
       </c>
-      <c r="FB14" s="38">
+      <c r="FB14" s="17">
         <v>12339</v>
       </c>
     </row>
     <row r="15" spans="1:158" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D1:BD1"/>
+    <mergeCell ref="BE1:FB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D1:BD1"/>
-    <mergeCell ref="BE1:FB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
